--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9593.216618774501</v>
+        <v>9853.322790833858</v>
       </c>
       <c r="AB2" t="n">
-        <v>13125.86220065567</v>
+        <v>13481.75094034175</v>
       </c>
       <c r="AC2" t="n">
-        <v>11873.1483344879</v>
+        <v>12195.0715523513</v>
       </c>
       <c r="AD2" t="n">
-        <v>9593216.6187745</v>
+        <v>9853322.790833857</v>
       </c>
       <c r="AE2" t="n">
-        <v>13125862.20065567</v>
+        <v>13481750.94034175</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.184665626106718e-07</v>
+        <v>7.074384868144577e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.41796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>11873148.3344879</v>
+        <v>12195071.55235131</v>
       </c>
     </row>
     <row r="3">
@@ -4733,28 +4733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4479.843776763792</v>
+        <v>4646.390183182514</v>
       </c>
       <c r="AB3" t="n">
-        <v>6129.519892127499</v>
+        <v>6357.396032898497</v>
       </c>
       <c r="AC3" t="n">
-        <v>5544.527116457817</v>
+        <v>5750.655078179796</v>
       </c>
       <c r="AD3" t="n">
-        <v>4479843.776763792</v>
+        <v>4646390.183182514</v>
       </c>
       <c r="AE3" t="n">
-        <v>6129519.892127499</v>
+        <v>6357396.032898497</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.635524008197334e-07</v>
+        <v>1.121768256535107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.53819444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>5544527.116457817</v>
+        <v>5750655.078179796</v>
       </c>
     </row>
     <row r="4">
@@ -4839,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3613.745520583434</v>
+        <v>3759.462958592994</v>
       </c>
       <c r="AB4" t="n">
-        <v>4944.486048463098</v>
+        <v>5143.863075747447</v>
       </c>
       <c r="AC4" t="n">
-        <v>4472.591239627346</v>
+        <v>4652.940003255085</v>
       </c>
       <c r="AD4" t="n">
-        <v>3613745.520583434</v>
+        <v>3759462.958592994</v>
       </c>
       <c r="AE4" t="n">
-        <v>4944486.048463098</v>
+        <v>5143863.075747446</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.57665362692013e-07</v>
+        <v>1.280870888107837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.74045138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>4472591.239627346</v>
+        <v>4652940.003255085</v>
       </c>
     </row>
     <row r="5">
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3250.210610656064</v>
+        <v>3375.184510619586</v>
       </c>
       <c r="AB5" t="n">
-        <v>4447.081546672122</v>
+        <v>4618.076350061569</v>
       </c>
       <c r="AC5" t="n">
-        <v>4022.658325375719</v>
+        <v>4177.333624722383</v>
       </c>
       <c r="AD5" t="n">
-        <v>3250210.610656064</v>
+        <v>3375184.510619585</v>
       </c>
       <c r="AE5" t="n">
-        <v>4447081.546672123</v>
+        <v>4618076.350061568</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.084564849722909e-07</v>
+        <v>1.366735800385183e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.06076388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>4022658.325375719</v>
+        <v>4177333.624722383</v>
       </c>
     </row>
     <row r="6">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3034.410510049172</v>
+        <v>3159.299069158121</v>
       </c>
       <c r="AB6" t="n">
-        <v>4151.814328593235</v>
+        <v>4322.692364860482</v>
       </c>
       <c r="AC6" t="n">
-        <v>3755.570996180148</v>
+        <v>3910.140672494873</v>
       </c>
       <c r="AD6" t="n">
-        <v>3034410.510049172</v>
+        <v>3159299.069158121</v>
       </c>
       <c r="AE6" t="n">
-        <v>4151814.328593235</v>
+        <v>4322692.364860483</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.404810344982748e-07</v>
+        <v>1.420874890295347e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.10590277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>3755570.996180148</v>
+        <v>3910140.672494873</v>
       </c>
     </row>
     <row r="7">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2891.988366581321</v>
+        <v>3016.962177036291</v>
       </c>
       <c r="AB7" t="n">
-        <v>3956.946068678988</v>
+        <v>4127.940749598886</v>
       </c>
       <c r="AC7" t="n">
-        <v>3579.300689492804</v>
+        <v>3733.975878058242</v>
       </c>
       <c r="AD7" t="n">
-        <v>2891988.366581321</v>
+        <v>3016962.177036291</v>
       </c>
       <c r="AE7" t="n">
-        <v>3956946.068678989</v>
+        <v>4127940.749598886</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.614883920590515e-07</v>
+        <v>1.456388870557118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.51996527777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>3579300.689492804</v>
+        <v>3733975.878058242</v>
       </c>
     </row>
     <row r="8">
@@ -5263,28 +5263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2785.287591552089</v>
+        <v>2899.847007311028</v>
       </c>
       <c r="AB8" t="n">
-        <v>3810.953360978014</v>
+        <v>3967.698607624136</v>
       </c>
       <c r="AC8" t="n">
-        <v>3447.241320912764</v>
+        <v>3589.027021212309</v>
       </c>
       <c r="AD8" t="n">
-        <v>2785287.591552089</v>
+        <v>2899847.007311028</v>
       </c>
       <c r="AE8" t="n">
-        <v>3810953.360978014</v>
+        <v>3967698.607624135</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.777340819060523e-07</v>
+        <v>1.483853015292887e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.08376736111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>3447241.320912764</v>
+        <v>3589027.021212309</v>
       </c>
     </row>
     <row r="9">
@@ -5369,28 +5369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2691.684247075691</v>
+        <v>2816.572716676089</v>
       </c>
       <c r="AB9" t="n">
-        <v>3682.881135577286</v>
+        <v>3853.759049374984</v>
       </c>
       <c r="AC9" t="n">
-        <v>3331.392128953788</v>
+        <v>3485.961694487288</v>
       </c>
       <c r="AD9" t="n">
-        <v>2691684.24707569</v>
+        <v>2816572.716676089</v>
       </c>
       <c r="AE9" t="n">
-        <v>3682881.135577286</v>
+        <v>3853759.049374985</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.899650323081045e-07</v>
+        <v>1.50453004380085e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.76692708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3331392.128953788</v>
+        <v>3485961.694487288</v>
       </c>
     </row>
     <row r="10">
@@ -5475,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2622.958786992224</v>
+        <v>2747.847256592623</v>
       </c>
       <c r="AB10" t="n">
-        <v>3588.847929137768</v>
+        <v>3759.725842935467</v>
       </c>
       <c r="AC10" t="n">
-        <v>3246.333319760428</v>
+        <v>3400.902885293926</v>
       </c>
       <c r="AD10" t="n">
-        <v>2622958.786992224</v>
+        <v>2747847.256592622</v>
       </c>
       <c r="AE10" t="n">
-        <v>3588847.929137768</v>
+        <v>3759725.842935467</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.991149036012427e-07</v>
+        <v>1.519998355203754e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.53689236111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>3246333.319760428</v>
+        <v>3400902.885293926</v>
       </c>
     </row>
     <row r="11">
@@ -5581,28 +5581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2555.575160765495</v>
+        <v>2670.049235669864</v>
       </c>
       <c r="AB11" t="n">
-        <v>3496.650678978569</v>
+        <v>3653.279158502492</v>
       </c>
       <c r="AC11" t="n">
-        <v>3162.935245756774</v>
+        <v>3304.615323024379</v>
       </c>
       <c r="AD11" t="n">
-        <v>2555575.160765495</v>
+        <v>2670049.235669864</v>
       </c>
       <c r="AE11" t="n">
-        <v>3496650.678978569</v>
+        <v>3653279.158502493</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.069576504239328e-07</v>
+        <v>1.533256907834815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.33940972222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>3162935.245756774</v>
+        <v>3304615.323024379</v>
       </c>
     </row>
     <row r="12">
@@ -5687,28 +5687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2494.712130943772</v>
+        <v>2609.18620584814</v>
       </c>
       <c r="AB12" t="n">
-        <v>3413.375196489111</v>
+        <v>3570.003676013033</v>
       </c>
       <c r="AC12" t="n">
-        <v>3087.607458438237</v>
+        <v>3229.287535705843</v>
       </c>
       <c r="AD12" t="n">
-        <v>2494712.130943771</v>
+        <v>2609186.20584814</v>
       </c>
       <c r="AE12" t="n">
-        <v>3413375.196489111</v>
+        <v>3570003.676013033</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.140534689777951e-07</v>
+        <v>1.54525274116768e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.16579861111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>3087607.458438237</v>
+        <v>3229287.535705843</v>
       </c>
     </row>
     <row r="13">
@@ -5793,28 +5793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2442.837456723896</v>
+        <v>2557.311531628265</v>
       </c>
       <c r="AB13" t="n">
-        <v>3342.397978672364</v>
+        <v>3499.026458196287</v>
       </c>
       <c r="AC13" t="n">
-        <v>3023.404206672774</v>
+        <v>3165.084283940379</v>
       </c>
       <c r="AD13" t="n">
-        <v>2442837.456723896</v>
+        <v>2557311.531628265</v>
       </c>
       <c r="AE13" t="n">
-        <v>3342397.978672364</v>
+        <v>3499026.458196287</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.184416725571573e-07</v>
+        <v>1.552671217044583e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.06163194444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>3023404.206672774</v>
+        <v>3165084.28394038</v>
       </c>
     </row>
     <row r="14">
@@ -5899,28 +5899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2382.245320319875</v>
+        <v>2507.048449065702</v>
       </c>
       <c r="AB14" t="n">
-        <v>3259.493144507981</v>
+        <v>3430.254291183483</v>
       </c>
       <c r="AC14" t="n">
-        <v>2948.411693523376</v>
+        <v>3102.875636024936</v>
       </c>
       <c r="AD14" t="n">
-        <v>2382245.320319875</v>
+        <v>2507048.449065702</v>
       </c>
       <c r="AE14" t="n">
-        <v>3259493.144507981</v>
+        <v>3430254.291183482</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.235768044053472e-07</v>
+        <v>1.561352412219682e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.93793402777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>2948411.693523376</v>
+        <v>3102875.636024936</v>
       </c>
     </row>
     <row r="15">
@@ -6005,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2341.130719471355</v>
+        <v>2465.933848217182</v>
       </c>
       <c r="AB15" t="n">
-        <v>3203.238333778858</v>
+        <v>3373.99948045436</v>
       </c>
       <c r="AC15" t="n">
-        <v>2897.52576297612</v>
+        <v>3051.989705477681</v>
       </c>
       <c r="AD15" t="n">
-        <v>2341130.719471355</v>
+        <v>2465933.848217182</v>
       </c>
       <c r="AE15" t="n">
-        <v>3203238.333778858</v>
+        <v>3373999.48045436</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.266578835142612e-07</v>
+        <v>1.566561129324742e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.86414930555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>2897525.76297612</v>
+        <v>3051989.705477681</v>
       </c>
     </row>
     <row r="16">
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2326.514324803283</v>
+        <v>2451.31745354911</v>
       </c>
       <c r="AB16" t="n">
-        <v>3183.239537764179</v>
+        <v>3354.000684439679</v>
       </c>
       <c r="AC16" t="n">
-        <v>2879.435623984596</v>
+        <v>3033.899566486155</v>
       </c>
       <c r="AD16" t="n">
-        <v>2326514.324803283</v>
+        <v>2451317.45354911</v>
       </c>
       <c r="AE16" t="n">
-        <v>3183239.537764179</v>
+        <v>3354000.68443968</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.27684909883899e-07</v>
+        <v>1.568297368359762e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.84027777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>2879435.623984596</v>
+        <v>3033899.566486156</v>
       </c>
     </row>
     <row r="17">
@@ -6217,28 +6217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2328.819337932581</v>
+        <v>2453.622466678407</v>
       </c>
       <c r="AB17" t="n">
-        <v>3186.393358417686</v>
+        <v>3357.154505093188</v>
       </c>
       <c r="AC17" t="n">
-        <v>2882.288448421348</v>
+        <v>3036.752390922908</v>
       </c>
       <c r="AD17" t="n">
-        <v>2328819.337932581</v>
+        <v>2453622.466678408</v>
       </c>
       <c r="AE17" t="n">
-        <v>3186393.358417686</v>
+        <v>3357154.505093188</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.285252041863301e-07</v>
+        <v>1.569717927570232e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2882288.448421348</v>
+        <v>3036752.390922908</v>
       </c>
     </row>
     <row r="18">
@@ -6323,28 +6323,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2339.298323006212</v>
+        <v>2464.101451752039</v>
       </c>
       <c r="AB18" t="n">
-        <v>3200.731168095623</v>
+        <v>3371.492314771124</v>
       </c>
       <c r="AC18" t="n">
-        <v>2895.257877666864</v>
+        <v>3049.721820168424</v>
       </c>
       <c r="AD18" t="n">
-        <v>2339298.323006212</v>
+        <v>2464101.451752039</v>
       </c>
       <c r="AE18" t="n">
-        <v>3200731.168095623</v>
+        <v>3371492.314771124</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.285252041863301e-07</v>
+        <v>1.569717927570232e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2895257.877666864</v>
+        <v>3049721.820168423</v>
       </c>
     </row>
   </sheetData>
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6605.168811135292</v>
+        <v>6816.985395001783</v>
       </c>
       <c r="AB2" t="n">
-        <v>9037.483366877826</v>
+        <v>9327.300161612142</v>
       </c>
       <c r="AC2" t="n">
-        <v>8174.958638530235</v>
+        <v>8437.115725135523</v>
       </c>
       <c r="AD2" t="n">
-        <v>6605168.811135292</v>
+        <v>6816985.395001783</v>
       </c>
       <c r="AE2" t="n">
-        <v>9037483.366877826</v>
+        <v>9327300.161612142</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137401653773928e-07</v>
+        <v>8.896905985834468e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.79861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>8174958.638530235</v>
+        <v>8437115.725135524</v>
       </c>
     </row>
     <row r="3">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3585.014251624991</v>
+        <v>3726.196950093012</v>
       </c>
       <c r="AB3" t="n">
-        <v>4905.174658740025</v>
+        <v>5098.347055325051</v>
       </c>
       <c r="AC3" t="n">
-        <v>4437.031673765563</v>
+        <v>4611.76796793967</v>
       </c>
       <c r="AD3" t="n">
-        <v>3585014.251624991</v>
+        <v>3726196.950093012</v>
       </c>
       <c r="AE3" t="n">
-        <v>4905174.658740025</v>
+        <v>5098347.055325051</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.411998550678911e-07</v>
+        <v>1.283603243754347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.27907986111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>4437031.673765563</v>
+        <v>4611767.967939669</v>
       </c>
     </row>
     <row r="4">
@@ -6832,28 +6832,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2983.892006298855</v>
+        <v>3114.898796068445</v>
       </c>
       <c r="AB4" t="n">
-        <v>4082.692683042958</v>
+        <v>4261.941952417381</v>
       </c>
       <c r="AC4" t="n">
-        <v>3693.046223468353</v>
+        <v>3855.188194151604</v>
       </c>
       <c r="AD4" t="n">
-        <v>2983892.006298854</v>
+        <v>3114898.796068445</v>
       </c>
       <c r="AE4" t="n">
-        <v>4082692.683042958</v>
+        <v>4261941.952417381</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.259056503369215e-07</v>
+        <v>1.430295978282958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.37760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3693046.223468353</v>
+        <v>3855188.194151604</v>
       </c>
     </row>
     <row r="5">
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2712.632466982872</v>
+        <v>2833.634029763173</v>
       </c>
       <c r="AB5" t="n">
-        <v>3711.543414224533</v>
+        <v>3877.103090632748</v>
       </c>
       <c r="AC5" t="n">
-        <v>3357.318919954702</v>
+        <v>3507.077813210976</v>
       </c>
       <c r="AD5" t="n">
-        <v>2712632.466982872</v>
+        <v>2833634.029763173</v>
       </c>
       <c r="AE5" t="n">
-        <v>3711543.414224532</v>
+        <v>3877103.090632748</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.709146589975466e-07</v>
+        <v>1.508242174737157e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.06684027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>3357318.919954702</v>
+        <v>3507077.813210976</v>
       </c>
     </row>
     <row r="6">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2541.410927576263</v>
+        <v>2662.327149501993</v>
       </c>
       <c r="AB6" t="n">
-        <v>3477.270550247195</v>
+        <v>3642.713459533212</v>
       </c>
       <c r="AC6" t="n">
-        <v>3145.40472931134</v>
+        <v>3295.057999535676</v>
       </c>
       <c r="AD6" t="n">
-        <v>2541410.927576263</v>
+        <v>2662327.149501992</v>
       </c>
       <c r="AE6" t="n">
-        <v>3477270.550247195</v>
+        <v>3642713.459533212</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.989245570910687e-07</v>
+        <v>1.556749464376036e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.31597222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>3145404.72931134</v>
+        <v>3295057.999535676</v>
       </c>
     </row>
     <row r="7">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2420.244004676418</v>
+        <v>2541.245477948168</v>
       </c>
       <c r="AB7" t="n">
-        <v>3311.484620828247</v>
+        <v>3477.044174766913</v>
       </c>
       <c r="AC7" t="n">
-        <v>2995.441176314129</v>
+        <v>3145.199958789177</v>
       </c>
       <c r="AD7" t="n">
-        <v>2420244.004676418</v>
+        <v>2541245.477948168</v>
       </c>
       <c r="AE7" t="n">
-        <v>3311484.620828247</v>
+        <v>3477044.174766913</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.170826979241106e-07</v>
+        <v>1.58819556938331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.85590277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2995441.176314129</v>
+        <v>3145199.958789177</v>
       </c>
     </row>
     <row r="8">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2324.2968255334</v>
+        <v>2445.29829880515</v>
       </c>
       <c r="AB8" t="n">
-        <v>3180.205457433961</v>
+        <v>3345.765011372627</v>
       </c>
       <c r="AC8" t="n">
-        <v>2876.691112022735</v>
+        <v>3026.449894497784</v>
       </c>
       <c r="AD8" t="n">
-        <v>2324296.8255334</v>
+        <v>2445298.29880515</v>
       </c>
       <c r="AE8" t="n">
-        <v>3180205.457433961</v>
+        <v>3345765.011372627</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.315705762483462e-07</v>
+        <v>1.61328554678273e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.50217013888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2876691.112022735</v>
+        <v>3026449.894497783</v>
       </c>
     </row>
     <row r="9">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2239.593066586053</v>
+        <v>2350.504061522495</v>
       </c>
       <c r="AB9" t="n">
-        <v>3064.310037576085</v>
+        <v>3216.063353895894</v>
       </c>
       <c r="AC9" t="n">
-        <v>2771.856588375856</v>
+        <v>2909.126781173216</v>
       </c>
       <c r="AD9" t="n">
-        <v>2239593.066586053</v>
+        <v>2350504.061522495</v>
       </c>
       <c r="AE9" t="n">
-        <v>3064310.037576085</v>
+        <v>3216063.353895894</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.421950203527856e-07</v>
+        <v>1.631684863542305e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.24609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>2771856.588375856</v>
+        <v>2909126.781173216</v>
       </c>
     </row>
     <row r="10">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2170.890584782207</v>
+        <v>2281.801579718651</v>
       </c>
       <c r="AB10" t="n">
-        <v>2970.308271032301</v>
+        <v>3122.061587352285</v>
       </c>
       <c r="AC10" t="n">
-        <v>2686.826218498819</v>
+        <v>2824.096411296223</v>
       </c>
       <c r="AD10" t="n">
-        <v>2170890.584782207</v>
+        <v>2281801.579718651</v>
       </c>
       <c r="AE10" t="n">
-        <v>2970308.271032302</v>
+        <v>3122061.587352285</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.498253029368831e-07</v>
+        <v>1.644898918306e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.06814236111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>2686826.21849882</v>
+        <v>2824096.411296223</v>
       </c>
     </row>
     <row r="11">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2098.651462726677</v>
+        <v>2219.567595143858</v>
       </c>
       <c r="AB11" t="n">
-        <v>2871.467517270785</v>
+        <v>3036.910304087422</v>
       </c>
       <c r="AC11" t="n">
-        <v>2597.418687552433</v>
+        <v>2747.071846995586</v>
       </c>
       <c r="AD11" t="n">
-        <v>2098651.462726677</v>
+        <v>2219567.595143858</v>
       </c>
       <c r="AE11" t="n">
-        <v>2871467.517270785</v>
+        <v>3036910.304087422</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.559102118330621e-07</v>
+        <v>1.655436708813757e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2597418.687552433</v>
+        <v>2747071.846995586</v>
       </c>
     </row>
     <row r="12">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2092.152522375068</v>
+        <v>2213.068654792249</v>
       </c>
       <c r="AB12" t="n">
-        <v>2862.575380368701</v>
+        <v>3028.018167185337</v>
       </c>
       <c r="AC12" t="n">
-        <v>2589.375203716091</v>
+        <v>2739.028363159243</v>
       </c>
       <c r="AD12" t="n">
-        <v>2092152.522375068</v>
+        <v>2213068.654792249</v>
       </c>
       <c r="AE12" t="n">
-        <v>2862575.380368701</v>
+        <v>3028018.167185337</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.571658279544957e-07</v>
+        <v>1.657611173521706e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.89887152777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>2589375.203716091</v>
+        <v>2739028.363159243</v>
       </c>
     </row>
     <row r="13">
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2102.652027506279</v>
+        <v>2223.56815992346</v>
       </c>
       <c r="AB13" t="n">
-        <v>2876.941266494699</v>
+        <v>3042.384053311336</v>
       </c>
       <c r="AC13" t="n">
-        <v>2602.370029832872</v>
+        <v>2752.023189276024</v>
       </c>
       <c r="AD13" t="n">
-        <v>2102652.027506279</v>
+        <v>2223568.15992346</v>
       </c>
       <c r="AE13" t="n">
-        <v>2876941.266494699</v>
+        <v>3042384.053311336</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.570692420990007e-07</v>
+        <v>1.65744390700571e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.90104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2602370.029832872</v>
+        <v>2752023.189276024</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2555.90347173478</v>
+        <v>2692.548615070939</v>
       </c>
       <c r="AB2" t="n">
-        <v>3497.099888530803</v>
+        <v>3684.063802001611</v>
       </c>
       <c r="AC2" t="n">
-        <v>3163.341583379812</v>
+        <v>3332.461923354459</v>
       </c>
       <c r="AD2" t="n">
-        <v>2555903.47173478</v>
+        <v>2692548.615070939</v>
       </c>
       <c r="AE2" t="n">
-        <v>3497099.888530803</v>
+        <v>3684063.802001611</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.192034326634511e-07</v>
+        <v>1.550109178756175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.55034722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3163341.583379812</v>
+        <v>3332461.923354459</v>
       </c>
     </row>
     <row r="3">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1804.653763601208</v>
+        <v>1922.982834857364</v>
       </c>
       <c r="AB3" t="n">
-        <v>2469.206895064227</v>
+        <v>2631.109950667093</v>
       </c>
       <c r="AC3" t="n">
-        <v>2233.54925455294</v>
+        <v>2380.000509761434</v>
       </c>
       <c r="AD3" t="n">
-        <v>1804653.763601208</v>
+        <v>1922982.834857364</v>
       </c>
       <c r="AE3" t="n">
-        <v>2469206.895064227</v>
+        <v>2631109.950667094</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.797892917173312e-07</v>
+        <v>1.853972180512089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.87152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2233549.25455294</v>
+        <v>2380000.509761435</v>
       </c>
     </row>
     <row r="4">
@@ -8295,28 +8295,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1573.194843227352</v>
+        <v>1682.493889725364</v>
       </c>
       <c r="AB4" t="n">
-        <v>2152.514588961825</v>
+        <v>2302.062366314022</v>
       </c>
       <c r="AC4" t="n">
-        <v>1947.081617664507</v>
+        <v>2082.356765037835</v>
       </c>
       <c r="AD4" t="n">
-        <v>1573194.843227352</v>
+        <v>1682493.889725364</v>
       </c>
       <c r="AE4" t="n">
-        <v>2152514.588961825</v>
+        <v>2302062.366314022</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.031629424740765e-06</v>
+        <v>1.952064867656113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.67144097222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1947081.617664507</v>
+        <v>2082356.765037835</v>
       </c>
     </row>
     <row r="5">
@@ -8401,28 +8401,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1566.640383679503</v>
+        <v>1675.939430177516</v>
       </c>
       <c r="AB5" t="n">
-        <v>2143.546488246111</v>
+        <v>2293.094265598309</v>
       </c>
       <c r="AC5" t="n">
-        <v>1938.969419894293</v>
+        <v>2074.244567267621</v>
       </c>
       <c r="AD5" t="n">
-        <v>1566640.383679503</v>
+        <v>1675939.430177516</v>
       </c>
       <c r="AE5" t="n">
-        <v>2143546.488246111</v>
+        <v>2293094.265598309</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034862697070709e-06</v>
+        <v>1.958182914671332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.59982638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1938969.419894293</v>
+        <v>2074244.567267621</v>
       </c>
     </row>
   </sheetData>
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3658.60832713457</v>
+        <v>3810.469168252109</v>
       </c>
       <c r="AB2" t="n">
-        <v>5005.869319593705</v>
+        <v>5213.652022038208</v>
       </c>
       <c r="AC2" t="n">
-        <v>4528.11617751321</v>
+        <v>4716.068390461256</v>
       </c>
       <c r="AD2" t="n">
-        <v>3658608.32713457</v>
+        <v>3810469.168252109</v>
       </c>
       <c r="AE2" t="n">
-        <v>5005869.319593705</v>
+        <v>5213652.022038208</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.965816674996404e-07</v>
+        <v>1.269020518213902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.12239583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4528116.177513209</v>
+        <v>4716068.390461256</v>
       </c>
     </row>
     <row r="3">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2397.937098274916</v>
+        <v>2521.222706200965</v>
       </c>
       <c r="AB3" t="n">
-        <v>3280.963327378454</v>
+        <v>3449.648135120043</v>
       </c>
       <c r="AC3" t="n">
-        <v>2967.832792274281</v>
+        <v>3120.418558715621</v>
       </c>
       <c r="AD3" t="n">
-        <v>2397937.098274916</v>
+        <v>2521222.706200965</v>
       </c>
       <c r="AE3" t="n">
-        <v>3280963.327378454</v>
+        <v>3449648.135120043</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.848525563176307e-07</v>
+        <v>1.612009189951407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2967832.792274281</v>
+        <v>3120418.558715621</v>
       </c>
     </row>
     <row r="4">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2066.687344548814</v>
+        <v>2180.646913896484</v>
       </c>
       <c r="AB4" t="n">
-        <v>2827.732800622463</v>
+        <v>2983.657310945318</v>
       </c>
       <c r="AC4" t="n">
-        <v>2557.857950878966</v>
+        <v>2698.901244778033</v>
       </c>
       <c r="AD4" t="n">
-        <v>2066687.344548814</v>
+        <v>2180646.913896484</v>
       </c>
       <c r="AE4" t="n">
-        <v>2827732.800622463</v>
+        <v>2983657.310945318</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.514587962828125e-07</v>
+        <v>1.733351293972453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.51779513888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2557857.950878966</v>
+        <v>2698901.244778033</v>
       </c>
     </row>
     <row r="5">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1880.102718446541</v>
+        <v>1993.976946939639</v>
       </c>
       <c r="AB5" t="n">
-        <v>2572.439483656582</v>
+        <v>2728.247226857238</v>
       </c>
       <c r="AC5" t="n">
-        <v>2326.929469777888</v>
+        <v>2467.867140645015</v>
       </c>
       <c r="AD5" t="n">
-        <v>1880102.718446541</v>
+        <v>1993976.946939639</v>
       </c>
       <c r="AE5" t="n">
-        <v>2572439.483656581</v>
+        <v>2728247.226857238</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.865147120539609e-07</v>
+        <v>1.797215559246687e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.68012152777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2326929.469777888</v>
+        <v>2467867.140645016</v>
       </c>
     </row>
     <row r="6">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1764.747305281875</v>
+        <v>1869.124992504551</v>
       </c>
       <c r="AB6" t="n">
-        <v>2414.605118243029</v>
+        <v>2557.419274719663</v>
       </c>
       <c r="AC6" t="n">
-        <v>2184.158594677481</v>
+        <v>2313.342768500914</v>
       </c>
       <c r="AD6" t="n">
-        <v>1764747.305281875</v>
+        <v>1869124.992504551</v>
       </c>
       <c r="AE6" t="n">
-        <v>2414605.118243029</v>
+        <v>2557419.274719663</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.005692360093471e-06</v>
+        <v>1.83215306907318e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.24826388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2184158.594677481</v>
+        <v>2313342.768500914</v>
       </c>
     </row>
     <row r="7">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1759.721631372482</v>
+        <v>1864.099318595158</v>
       </c>
       <c r="AB7" t="n">
-        <v>2407.728769483113</v>
+        <v>2550.542925959747</v>
       </c>
       <c r="AC7" t="n">
-        <v>2177.938514992195</v>
+        <v>2307.122688815627</v>
       </c>
       <c r="AD7" t="n">
-        <v>1759721.631372482</v>
+        <v>1864099.318595158</v>
       </c>
       <c r="AE7" t="n">
-        <v>2407728.769483113</v>
+        <v>2550542.925959747</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.007651367151271e-06</v>
+        <v>1.835721954485563e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.20486111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2177938.514992196</v>
+        <v>2307122.688815627</v>
       </c>
     </row>
   </sheetData>
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1883.301103796534</v>
+        <v>1997.650302022389</v>
       </c>
       <c r="AB2" t="n">
-        <v>2576.815655595246</v>
+        <v>2733.273273338446</v>
       </c>
       <c r="AC2" t="n">
-        <v>2330.887986008721</v>
+        <v>2472.413508304157</v>
       </c>
       <c r="AD2" t="n">
-        <v>1883301.103796534</v>
+        <v>1997650.302022389</v>
       </c>
       <c r="AE2" t="n">
-        <v>2576815.655595245</v>
+        <v>2733273.273338446</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.242405160544543e-07</v>
+        <v>1.811213620740218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.28255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2330887.986008721</v>
+        <v>2472413.508304157</v>
       </c>
     </row>
     <row r="3">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1424.433952836931</v>
+        <v>1529.895160241147</v>
       </c>
       <c r="AB3" t="n">
-        <v>1948.973375862351</v>
+        <v>2093.270052452905</v>
       </c>
       <c r="AC3" t="n">
-        <v>1762.966092271361</v>
+        <v>1893.491296569769</v>
       </c>
       <c r="AD3" t="n">
-        <v>1424433.952836931</v>
+        <v>1529895.160241147</v>
       </c>
       <c r="AE3" t="n">
-        <v>1948973.375862351</v>
+        <v>2093270.052452904</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.048151652214353e-06</v>
+        <v>2.054039523387599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.17491319444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1762966.092271361</v>
+        <v>1893491.296569769</v>
       </c>
     </row>
     <row r="4">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1431.988110434564</v>
+        <v>1537.44931783878</v>
       </c>
       <c r="AB4" t="n">
-        <v>1959.309307553345</v>
+        <v>2103.605984143898</v>
       </c>
       <c r="AC4" t="n">
-        <v>1772.315577148338</v>
+        <v>1902.840781446746</v>
       </c>
       <c r="AD4" t="n">
-        <v>1431988.110434564</v>
+        <v>1537449.31783878</v>
       </c>
       <c r="AE4" t="n">
-        <v>1959309.307553345</v>
+        <v>2103605.984143898</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.049494862362427e-06</v>
+        <v>2.056671782494888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.14670138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1772315.577148338</v>
+        <v>1902840.781446746</v>
       </c>
     </row>
   </sheetData>
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7251.245416192734</v>
+        <v>7475.025618118516</v>
       </c>
       <c r="AB2" t="n">
-        <v>9921.473880805652</v>
+        <v>10227.65982556627</v>
       </c>
       <c r="AC2" t="n">
-        <v>8974.582338497234</v>
+        <v>9251.546326424559</v>
       </c>
       <c r="AD2" t="n">
-        <v>7251245.416192734</v>
+        <v>7475025.618118516</v>
       </c>
       <c r="AE2" t="n">
-        <v>9921473.880805653</v>
+        <v>10227659.82556627</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.884501362884913e-07</v>
+        <v>8.403692801822519e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.52821180555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>8974582.338497235</v>
+        <v>9251546.32642456</v>
       </c>
     </row>
     <row r="3">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3795.937522755979</v>
+        <v>3948.487779251649</v>
       </c>
       <c r="AB3" t="n">
-        <v>5193.769183579449</v>
+        <v>5402.49517455917</v>
       </c>
       <c r="AC3" t="n">
-        <v>4698.083142199262</v>
+        <v>4886.888617548639</v>
       </c>
       <c r="AD3" t="n">
-        <v>3795937.522755979</v>
+        <v>3948487.77925165</v>
       </c>
       <c r="AE3" t="n">
-        <v>5193769.18357945</v>
+        <v>5402495.174559169</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.204711298929012e-07</v>
+        <v>1.239557039375232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.83029513888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>4698083.142199262</v>
+        <v>4886888.617548639</v>
       </c>
     </row>
     <row r="4">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3134.091635104604</v>
+        <v>3266.375819474813</v>
       </c>
       <c r="AB4" t="n">
-        <v>4288.202441514955</v>
+        <v>4469.199498536617</v>
       </c>
       <c r="AC4" t="n">
-        <v>3878.942419026532</v>
+        <v>4042.665370957006</v>
       </c>
       <c r="AD4" t="n">
-        <v>3134091.635104604</v>
+        <v>3266375.819474814</v>
       </c>
       <c r="AE4" t="n">
-        <v>4288202.441514955</v>
+        <v>4469199.498536617</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.082447483480347e-07</v>
+        <v>1.390569900423072e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.70095486111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>3878942.419026532</v>
+        <v>4042665.370957006</v>
       </c>
     </row>
     <row r="5">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2842.627763975826</v>
+        <v>2964.650990509998</v>
       </c>
       <c r="AB5" t="n">
-        <v>3889.40871455805</v>
+        <v>4056.366276386935</v>
       </c>
       <c r="AC5" t="n">
-        <v>3518.209005659897</v>
+        <v>3669.232372114238</v>
       </c>
       <c r="AD5" t="n">
-        <v>2842627.763975826</v>
+        <v>2964650.990509998</v>
       </c>
       <c r="AE5" t="n">
-        <v>3889408.71455805</v>
+        <v>4056366.276386935</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.545723724835687e-07</v>
+        <v>1.470275707126621e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.30555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>3518209.005659897</v>
+        <v>3669232.372114238</v>
       </c>
     </row>
     <row r="6">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2662.402527016072</v>
+        <v>2784.511004896265</v>
       </c>
       <c r="AB6" t="n">
-        <v>3642.816594373397</v>
+        <v>3809.890800854933</v>
       </c>
       <c r="AC6" t="n">
-        <v>3295.151291331464</v>
+        <v>3446.280170036516</v>
       </c>
       <c r="AD6" t="n">
-        <v>2662402.527016072</v>
+        <v>2784511.004896265</v>
       </c>
       <c r="AE6" t="n">
-        <v>3642816.594373397</v>
+        <v>3809890.800854933</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.8357499668412e-07</v>
+        <v>1.520174177025743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.51128472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>3295151.291331464</v>
+        <v>3446280.170036516</v>
       </c>
     </row>
     <row r="7">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2544.48582916932</v>
+        <v>2656.418690068047</v>
       </c>
       <c r="AB7" t="n">
-        <v>3481.477766261899</v>
+        <v>3634.629244672855</v>
       </c>
       <c r="AC7" t="n">
-        <v>3149.210414534467</v>
+        <v>3287.745330795324</v>
       </c>
       <c r="AD7" t="n">
-        <v>2544485.82916932</v>
+        <v>2656418.690068047</v>
       </c>
       <c r="AE7" t="n">
-        <v>3481477.766261899</v>
+        <v>3634629.244672855</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.030057977161722e-07</v>
+        <v>1.553604505043967e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.00347222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>3149210.414534466</v>
+        <v>3287745.330795324</v>
       </c>
     </row>
     <row r="8">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2439.126840603495</v>
+        <v>2561.149977629116</v>
       </c>
       <c r="AB8" t="n">
-        <v>3337.320949995601</v>
+        <v>3504.278389354939</v>
       </c>
       <c r="AC8" t="n">
-        <v>3018.811722487267</v>
+        <v>3169.83497816038</v>
       </c>
       <c r="AD8" t="n">
-        <v>2439126.840603495</v>
+        <v>2561149.977629116</v>
       </c>
       <c r="AE8" t="n">
-        <v>3337320.949995601</v>
+        <v>3504278.389354939</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.171720960055505e-07</v>
+        <v>1.577977355027697e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.64756944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>3018811.722487267</v>
+        <v>3169834.97816038</v>
       </c>
     </row>
     <row r="9">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2361.855233050668</v>
+        <v>2473.702753094824</v>
       </c>
       <c r="AB9" t="n">
-        <v>3231.594527559085</v>
+        <v>3384.629238847844</v>
       </c>
       <c r="AC9" t="n">
-        <v>2923.17568142013</v>
+        <v>3061.604974649049</v>
       </c>
       <c r="AD9" t="n">
-        <v>2361855.233050668</v>
+        <v>2473702.753094824</v>
       </c>
       <c r="AE9" t="n">
-        <v>3231594.527559085</v>
+        <v>3384629.238847844</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.27796819722584e-07</v>
+        <v>1.596256992515494e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.38715277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>2923175.68142013</v>
+        <v>3061604.974649049</v>
       </c>
     </row>
     <row r="10">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2282.574976970581</v>
+        <v>2394.422497014737</v>
       </c>
       <c r="AB10" t="n">
-        <v>3123.119783592255</v>
+        <v>3276.154494881013</v>
       </c>
       <c r="AC10" t="n">
-        <v>2825.053614772239</v>
+        <v>2963.482908001158</v>
       </c>
       <c r="AD10" t="n">
-        <v>2282574.976970581</v>
+        <v>2394422.497014738</v>
       </c>
       <c r="AE10" t="n">
-        <v>3123119.783592255</v>
+        <v>3276154.494881013</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.371772064277128e-07</v>
+        <v>1.612395771558775e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.16579861111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>2825053.614772239</v>
+        <v>2963482.908001158</v>
       </c>
     </row>
     <row r="11">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2218.762542671631</v>
+        <v>2330.610062715788</v>
       </c>
       <c r="AB11" t="n">
-        <v>3035.808795778512</v>
+        <v>3188.84350706727</v>
       </c>
       <c r="AC11" t="n">
-        <v>2746.075465093701</v>
+        <v>2884.504758322622</v>
       </c>
       <c r="AD11" t="n">
-        <v>2218762.542671631</v>
+        <v>2330610.062715787</v>
       </c>
       <c r="AE11" t="n">
-        <v>3035808.795778512</v>
+        <v>3188843.507067271</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.436860461822919e-07</v>
+        <v>1.623594108037786e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.01388888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>2746075.465093702</v>
+        <v>2884504.758322622</v>
       </c>
     </row>
     <row r="12">
@@ -11094,28 +11094,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2158.292969790261</v>
+        <v>2280.230765961313</v>
       </c>
       <c r="AB12" t="n">
-        <v>2953.071658432771</v>
+        <v>3119.912330670084</v>
       </c>
       <c r="AC12" t="n">
-        <v>2671.234644014051</v>
+        <v>2822.152276655271</v>
       </c>
       <c r="AD12" t="n">
-        <v>2158292.969790261</v>
+        <v>2280230.765961313</v>
       </c>
       <c r="AE12" t="n">
-        <v>2953071.658432771</v>
+        <v>3119912.330670084</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.478976483764315e-07</v>
+        <v>1.630840090465381e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.9140625</v>
       </c>
       <c r="AH12" t="n">
-        <v>2671234.644014051</v>
+        <v>2822152.276655271</v>
       </c>
     </row>
     <row r="13">
@@ -11200,28 +11200,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2148.623158644727</v>
+        <v>2270.56095481578</v>
       </c>
       <c r="AB13" t="n">
-        <v>2939.840996221492</v>
+        <v>3106.681668458804</v>
       </c>
       <c r="AC13" t="n">
-        <v>2659.266697634866</v>
+        <v>2810.184330276086</v>
       </c>
       <c r="AD13" t="n">
-        <v>2148623.158644727</v>
+        <v>2270560.95481578</v>
       </c>
       <c r="AE13" t="n">
-        <v>2939840.996221492</v>
+        <v>3106681.668458804</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.490462671566513e-07</v>
+        <v>1.632816267491089e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.88802083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2659266.697634866</v>
+        <v>2810184.330276086</v>
       </c>
     </row>
     <row r="14">
@@ -11306,28 +11306,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2157.665646530823</v>
+        <v>2279.603442701876</v>
       </c>
       <c r="AB14" t="n">
-        <v>2952.213327073659</v>
+        <v>3119.053999310973</v>
       </c>
       <c r="AC14" t="n">
-        <v>2670.458230595177</v>
+        <v>2821.375863236397</v>
       </c>
       <c r="AD14" t="n">
-        <v>2157665.646530823</v>
+        <v>2279603.442701876</v>
       </c>
       <c r="AE14" t="n">
-        <v>2952213.327073659</v>
+        <v>3119053.999310973</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.490462671566513e-07</v>
+        <v>1.632816267491089e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.88802083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2670458.230595177</v>
+        <v>2821375.863236398</v>
       </c>
     </row>
   </sheetData>
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1534.067412475909</v>
+        <v>1637.477207779515</v>
       </c>
       <c r="AB2" t="n">
-        <v>2098.978712027284</v>
+        <v>2240.468556079869</v>
       </c>
       <c r="AC2" t="n">
-        <v>1898.655129686524</v>
+        <v>2026.641381604974</v>
       </c>
       <c r="AD2" t="n">
-        <v>1534067.412475909</v>
+        <v>1637477.207779515</v>
       </c>
       <c r="AE2" t="n">
-        <v>2098978.712027284</v>
+        <v>2240468.556079869</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.916714907237493e-07</v>
+        <v>1.987964544063835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.06727430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1898655.129686524</v>
+        <v>2026641.381604974</v>
       </c>
     </row>
     <row r="3">
@@ -11709,28 +11709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1340.809284913909</v>
+        <v>1444.218990708964</v>
       </c>
       <c r="AB3" t="n">
-        <v>1834.554415950098</v>
+        <v>1976.044137533135</v>
       </c>
       <c r="AC3" t="n">
-        <v>1659.467117305114</v>
+        <v>1787.453258442337</v>
       </c>
       <c r="AD3" t="n">
-        <v>1340809.284913909</v>
+        <v>1444218.990708964</v>
       </c>
       <c r="AE3" t="n">
-        <v>1834554.415950098</v>
+        <v>1976044.137533135</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.051810976992661e-06</v>
+        <v>2.10852378925657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.63498263888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1659467.117305114</v>
+        <v>1787453.258442337</v>
       </c>
     </row>
   </sheetData>
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4969.250409323189</v>
+        <v>5145.821689374837</v>
       </c>
       <c r="AB2" t="n">
-        <v>6799.14763789211</v>
+        <v>7040.740253033889</v>
       </c>
       <c r="AC2" t="n">
-        <v>6150.246529995073</v>
+        <v>6368.781885025078</v>
       </c>
       <c r="AD2" t="n">
-        <v>4969250.409323189</v>
+        <v>5145821.689374837</v>
       </c>
       <c r="AE2" t="n">
-        <v>6799147.637892109</v>
+        <v>7040740.253033889</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.976772427832346e-07</v>
+        <v>1.058530808512143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.13498263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>6150246.529995073</v>
+        <v>6368781.885025077</v>
       </c>
     </row>
     <row r="3">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2971.39689574242</v>
+        <v>3108.711079308258</v>
       </c>
       <c r="AB3" t="n">
-        <v>4065.59632153427</v>
+        <v>4253.475645363295</v>
       </c>
       <c r="AC3" t="n">
-        <v>3677.581514707162</v>
+        <v>3847.529899560225</v>
       </c>
       <c r="AD3" t="n">
-        <v>2971396.89574242</v>
+        <v>3108711.079308258</v>
       </c>
       <c r="AE3" t="n">
-        <v>4065596.32153427</v>
+        <v>4253475.645363295</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.077499466652539e-07</v>
+        <v>1.430585176938573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.73611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>3677581.514707162</v>
+        <v>3847529.899560225</v>
       </c>
     </row>
     <row r="4">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2525.057568621526</v>
+        <v>2642.743338207285</v>
       </c>
       <c r="AB4" t="n">
-        <v>3454.895163066044</v>
+        <v>3615.918024943014</v>
       </c>
       <c r="AC4" t="n">
-        <v>3125.164817678705</v>
+        <v>3270.819883615138</v>
       </c>
       <c r="AD4" t="n">
-        <v>2525057.568621526</v>
+        <v>2642743.338207285</v>
       </c>
       <c r="AE4" t="n">
-        <v>3454895.163066044</v>
+        <v>3615918.024943014</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.845742609224397e-07</v>
+        <v>1.566646746064676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.4140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3125164.817678705</v>
+        <v>3270819.883615138</v>
       </c>
     </row>
     <row r="5">
@@ -12324,28 +12324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2310.324698043954</v>
+        <v>2427.925126775142</v>
       </c>
       <c r="AB5" t="n">
-        <v>3161.088176196138</v>
+        <v>3321.994270950911</v>
       </c>
       <c r="AC5" t="n">
-        <v>2859.398357274979</v>
+        <v>3004.947800179472</v>
       </c>
       <c r="AD5" t="n">
-        <v>2310324.698043954</v>
+        <v>2427925.126775141</v>
       </c>
       <c r="AE5" t="n">
-        <v>3161088.176196138</v>
+        <v>3321994.270950911</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.239815516554002e-07</v>
+        <v>1.636439986186356e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.37456597222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2859398.357274979</v>
+        <v>3004947.800179472</v>
       </c>
     </row>
     <row r="6">
@@ -12430,28 +12430,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2161.04879212298</v>
+        <v>2278.73447220019</v>
       </c>
       <c r="AB6" t="n">
-        <v>2956.842296126698</v>
+        <v>3117.865035534293</v>
       </c>
       <c r="AC6" t="n">
-        <v>2674.645417338592</v>
+        <v>2820.300372493844</v>
       </c>
       <c r="AD6" t="n">
-        <v>2161048.79212298</v>
+        <v>2278734.47220019</v>
       </c>
       <c r="AE6" t="n">
-        <v>2956842.296126698</v>
+        <v>3117865.035534293</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.484618383228453e-07</v>
+        <v>1.679796392928611e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.76909722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>2674645.417338592</v>
+        <v>2820300.372493844</v>
       </c>
     </row>
     <row r="7">
@@ -12536,28 +12536,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2052.621990765879</v>
+        <v>2160.493508607323</v>
       </c>
       <c r="AB7" t="n">
-        <v>2808.487963057036</v>
+        <v>2956.082532723197</v>
       </c>
       <c r="AC7" t="n">
-        <v>2540.449813600485</v>
+        <v>2673.958164687986</v>
       </c>
       <c r="AD7" t="n">
-        <v>2052621.990765879</v>
+        <v>2160493.508607323</v>
       </c>
       <c r="AE7" t="n">
-        <v>2808487.963057036</v>
+        <v>2956082.532723197</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.65379109597096e-07</v>
+        <v>1.709758137425292e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.36979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2540449.813600485</v>
+        <v>2673958.164687986</v>
       </c>
     </row>
     <row r="8">
@@ -12642,28 +12642,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1958.164475316922</v>
+        <v>2066.035993158366</v>
       </c>
       <c r="AB8" t="n">
-        <v>2679.247023248295</v>
+        <v>2826.841592914456</v>
       </c>
       <c r="AC8" t="n">
-        <v>2423.543447696292</v>
+        <v>2557.051798783794</v>
       </c>
       <c r="AD8" t="n">
-        <v>1958164.475316922</v>
+        <v>2066035.993158366</v>
       </c>
       <c r="AE8" t="n">
-        <v>2679247.023248295</v>
+        <v>2826841.592914456</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.773207128495083e-07</v>
+        <v>1.730907604128831e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.09635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2423543.447696292</v>
+        <v>2557051.798783794</v>
       </c>
     </row>
     <row r="9">
@@ -12748,28 +12748,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1933.008607713338</v>
+        <v>2040.880125554781</v>
       </c>
       <c r="AB9" t="n">
-        <v>2644.827655394519</v>
+        <v>2792.422225060679</v>
       </c>
       <c r="AC9" t="n">
-        <v>2392.409016002593</v>
+        <v>2525.917367090095</v>
       </c>
       <c r="AD9" t="n">
-        <v>1933008.607713338</v>
+        <v>2040880.125554781</v>
       </c>
       <c r="AE9" t="n">
-        <v>2644827.655394519</v>
+        <v>2792422.225060679</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.805051403834848e-07</v>
+        <v>1.736547461916442e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.02690972222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2392409.016002593</v>
+        <v>2525917.367090095</v>
       </c>
     </row>
     <row r="10">
@@ -12854,28 +12854,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1940.254219605131</v>
+        <v>2048.125737446575</v>
       </c>
       <c r="AB10" t="n">
-        <v>2654.741421238708</v>
+        <v>2802.335990904868</v>
       </c>
       <c r="AC10" t="n">
-        <v>2401.37662594867</v>
+        <v>2534.884977036173</v>
       </c>
       <c r="AD10" t="n">
-        <v>1940254.219605131</v>
+        <v>2048125.737446575</v>
       </c>
       <c r="AE10" t="n">
-        <v>2654741.421238707</v>
+        <v>2802335.990904868</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.811022205461055e-07</v>
+        <v>1.737604935251619e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.01171875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2401376.62594867</v>
+        <v>2534884.977036173</v>
       </c>
     </row>
   </sheetData>
@@ -13151,28 +13151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6012.030632429348</v>
+        <v>6211.90387410527</v>
       </c>
       <c r="AB2" t="n">
-        <v>8225.925543362668</v>
+        <v>8499.400930408774</v>
       </c>
       <c r="AC2" t="n">
-        <v>7440.854754662835</v>
+        <v>7688.230034594367</v>
       </c>
       <c r="AD2" t="n">
-        <v>6012030.632429348</v>
+        <v>6211903.87410527</v>
       </c>
       <c r="AE2" t="n">
-        <v>8225925.543362668</v>
+        <v>8499400.930408774</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.406556169189913e-07</v>
+        <v>9.428561862884196e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.13845486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>7440854.754662835</v>
+        <v>7688230.034594366</v>
       </c>
     </row>
     <row r="3">
@@ -13257,28 +13257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3369.288595526403</v>
+        <v>3519.150789224644</v>
       </c>
       <c r="AB3" t="n">
-        <v>4610.009298921659</v>
+        <v>4815.057363792979</v>
       </c>
       <c r="AC3" t="n">
-        <v>4170.03648162109</v>
+        <v>4355.515046967849</v>
       </c>
       <c r="AD3" t="n">
-        <v>3369288.595526403</v>
+        <v>3519150.789224644</v>
       </c>
       <c r="AE3" t="n">
-        <v>4610009.29892166</v>
+        <v>4815057.363792979</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.627680597217796e-07</v>
+        <v>1.330200891854699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.74088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4170036.481621091</v>
+        <v>4355515.046967849</v>
       </c>
     </row>
     <row r="4">
@@ -13363,28 +13363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2834.344763369256</v>
+        <v>2954.371153203714</v>
       </c>
       <c r="AB4" t="n">
-        <v>3878.075547707943</v>
+        <v>4042.300949470063</v>
       </c>
       <c r="AC4" t="n">
-        <v>3507.957460347766</v>
+        <v>3656.509420257502</v>
       </c>
       <c r="AD4" t="n">
-        <v>2834344.763369256</v>
+        <v>2954371.153203714</v>
       </c>
       <c r="AE4" t="n">
-        <v>3878075.547707943</v>
+        <v>4042300.949470063</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.446708042144673e-07</v>
+        <v>1.473032126567463e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3507957.460347767</v>
+        <v>3656509.420257502</v>
       </c>
     </row>
     <row r="5">
@@ -13469,28 +13469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2574.606946427058</v>
+        <v>2704.464756737648</v>
       </c>
       <c r="AB5" t="n">
-        <v>3522.690807743847</v>
+        <v>3700.36799273307</v>
       </c>
       <c r="AC5" t="n">
-        <v>3186.490141180243</v>
+        <v>3347.210065005583</v>
       </c>
       <c r="AD5" t="n">
-        <v>2574606.946427058</v>
+        <v>2704464.756737648</v>
       </c>
       <c r="AE5" t="n">
-        <v>3522690.807743846</v>
+        <v>3700367.992733071</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.876697450731282e-07</v>
+        <v>1.548018524791663e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.83680555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>3186490.141180242</v>
+        <v>3347210.065005583</v>
       </c>
     </row>
     <row r="6">
@@ -13575,28 +13575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2422.964214844853</v>
+        <v>2542.819922970168</v>
       </c>
       <c r="AB6" t="n">
-        <v>3315.206532387901</v>
+        <v>3479.198399905626</v>
       </c>
       <c r="AC6" t="n">
-        <v>2998.807873858267</v>
+        <v>3147.148587704125</v>
       </c>
       <c r="AD6" t="n">
-        <v>2422964.214844853</v>
+        <v>2542819.922970168</v>
       </c>
       <c r="AE6" t="n">
-        <v>3315206.532387901</v>
+        <v>3479198.399905626</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.143856403005048e-07</v>
+        <v>1.594608713257493e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.14019097222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>2998807.873858267</v>
+        <v>3147148.587704124</v>
       </c>
     </row>
     <row r="7">
@@ -13681,28 +13681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2301.430290672894</v>
+        <v>2421.371250144231</v>
       </c>
       <c r="AB7" t="n">
-        <v>3148.918455637494</v>
+        <v>3313.026967807868</v>
       </c>
       <c r="AC7" t="n">
-        <v>2848.390097766143</v>
+        <v>2996.836323862713</v>
       </c>
       <c r="AD7" t="n">
-        <v>2301430.290672895</v>
+        <v>2421371.250144231</v>
       </c>
       <c r="AE7" t="n">
-        <v>3148918.455637495</v>
+        <v>3313026.967807868</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.325212480096001e-07</v>
+        <v>1.626235629515319e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.69097222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>2848390.097766143</v>
+        <v>2996836.323862713</v>
       </c>
     </row>
     <row r="8">
@@ -13787,28 +13787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2208.516809776114</v>
+        <v>2318.455667062176</v>
       </c>
       <c r="AB8" t="n">
-        <v>3021.790132021031</v>
+        <v>3172.213326719905</v>
       </c>
       <c r="AC8" t="n">
-        <v>2733.394722929917</v>
+        <v>2869.461739047004</v>
       </c>
       <c r="AD8" t="n">
-        <v>2208516.809776114</v>
+        <v>2318455.667062175</v>
       </c>
       <c r="AE8" t="n">
-        <v>3021790.132021031</v>
+        <v>3172213.326719905</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.458791956232883e-07</v>
+        <v>1.649530723748234e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.36979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2733394.722929917</v>
+        <v>2869461.739047004</v>
       </c>
     </row>
     <row r="9">
@@ -13893,28 +13893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2120.708457293835</v>
+        <v>2230.647314579899</v>
       </c>
       <c r="AB9" t="n">
-        <v>2901.646870323494</v>
+        <v>3052.070065022537</v>
       </c>
       <c r="AC9" t="n">
-        <v>2624.717765506779</v>
+        <v>2760.784781623911</v>
       </c>
       <c r="AD9" t="n">
-        <v>2120708.457293835</v>
+        <v>2230647.314579899</v>
       </c>
       <c r="AE9" t="n">
-        <v>2901646.870323494</v>
+        <v>3052070.065022537</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.559220321503679e-07</v>
+        <v>1.667044553718966e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2624717.765506779</v>
+        <v>2760784.781623911</v>
       </c>
     </row>
     <row r="10">
@@ -13999,28 +13999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2045.981265572549</v>
+        <v>2165.836884189314</v>
       </c>
       <c r="AB10" t="n">
-        <v>2799.401829879404</v>
+        <v>2963.39357492757</v>
       </c>
       <c r="AC10" t="n">
-        <v>2532.230848220858</v>
+        <v>2680.571451285487</v>
       </c>
       <c r="AD10" t="n">
-        <v>2045981.265572549</v>
+        <v>2165836.884189314</v>
       </c>
       <c r="AE10" t="n">
-        <v>2799401.829879404</v>
+        <v>2963393.57492757</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.632347771943578e-07</v>
+        <v>1.679797342532606e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.96614583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2532230.848220858</v>
+        <v>2680571.451285487</v>
       </c>
     </row>
     <row r="11">
@@ -14105,28 +14105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2040.951987505565</v>
+        <v>2160.807606122329</v>
       </c>
       <c r="AB11" t="n">
-        <v>2792.520549752066</v>
+        <v>2956.512294800233</v>
       </c>
       <c r="AC11" t="n">
-        <v>2526.006307810936</v>
+        <v>2674.346910875565</v>
       </c>
       <c r="AD11" t="n">
-        <v>2040951.987505565</v>
+        <v>2160807.606122329</v>
       </c>
       <c r="AE11" t="n">
-        <v>2792520.549752066</v>
+        <v>2956512.294800233</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.643073131341429e-07</v>
+        <v>1.681667751558606e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.94227430555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>2526006.307810936</v>
+        <v>2674346.910875565</v>
       </c>
     </row>
     <row r="12">
@@ -14211,28 +14211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2051.493674730363</v>
+        <v>2171.349293347127</v>
       </c>
       <c r="AB12" t="n">
-        <v>2806.944151279451</v>
+        <v>2970.935896327618</v>
       </c>
       <c r="AC12" t="n">
-        <v>2539.0533410522</v>
+        <v>2687.393944116829</v>
       </c>
       <c r="AD12" t="n">
-        <v>2051493.674730363</v>
+        <v>2171349.293347127</v>
       </c>
       <c r="AE12" t="n">
-        <v>2806944.151279451</v>
+        <v>2970935.896327618</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.641123065996366e-07</v>
+        <v>1.681327677190242e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.94661458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2539053.3410522</v>
+        <v>2687393.944116828</v>
       </c>
     </row>
   </sheetData>
@@ -14508,28 +14508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8735.959767528491</v>
+        <v>8983.802042245712</v>
       </c>
       <c r="AB2" t="n">
-        <v>11952.92555727771</v>
+        <v>12292.0342915753</v>
       </c>
       <c r="AC2" t="n">
-        <v>10812.15511812705</v>
+        <v>11118.89979076538</v>
       </c>
       <c r="AD2" t="n">
-        <v>8735959.767528491</v>
+        <v>8983802.042245712</v>
       </c>
       <c r="AE2" t="n">
-        <v>11952925.55727771</v>
+        <v>12292034.2915753</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.409166175430269e-07</v>
+        <v>7.49529027466398e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.32595486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>10812155.11812705</v>
+        <v>11118899.79076537</v>
       </c>
     </row>
     <row r="3">
@@ -14614,28 +14614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4243.221557492471</v>
+        <v>4408.449680964918</v>
       </c>
       <c r="AB3" t="n">
-        <v>5805.762932684895</v>
+        <v>6031.835340570261</v>
       </c>
       <c r="AC3" t="n">
-        <v>5251.669066828683</v>
+        <v>5456.165441400078</v>
       </c>
       <c r="AD3" t="n">
-        <v>4243221.557492471</v>
+        <v>4408449.680964918</v>
       </c>
       <c r="AE3" t="n">
-        <v>5805762.932684895</v>
+        <v>6031835.340570261</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.816561495974692e-07</v>
+        <v>1.15877027661454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.9609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>5251669.066828683</v>
+        <v>5456165.441400078</v>
       </c>
     </row>
     <row r="4">
@@ -14720,28 +14720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3453.074633670035</v>
+        <v>3587.375911534055</v>
       </c>
       <c r="AB4" t="n">
-        <v>4724.649052688909</v>
+        <v>4908.405986016692</v>
       </c>
       <c r="AC4" t="n">
-        <v>4273.735178186693</v>
+        <v>4439.95460770214</v>
       </c>
       <c r="AD4" t="n">
-        <v>3453074.633670035</v>
+        <v>3587375.911534056</v>
       </c>
       <c r="AE4" t="n">
-        <v>4724649.05268891</v>
+        <v>4908405.986016692</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.741686437372334e-07</v>
+        <v>1.316035385259037e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.38237847222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>4273735.178186693</v>
+        <v>4439954.607702141</v>
       </c>
     </row>
     <row r="5">
@@ -14826,28 +14826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3104.881323999498</v>
+        <v>3239.182512354968</v>
       </c>
       <c r="AB5" t="n">
-        <v>4248.235605192971</v>
+        <v>4431.992416051204</v>
       </c>
       <c r="AC5" t="n">
-        <v>3842.789961469313</v>
+        <v>4009.009280203533</v>
       </c>
       <c r="AD5" t="n">
-        <v>3104881.323999499</v>
+        <v>3239182.512354969</v>
       </c>
       <c r="AE5" t="n">
-        <v>4248235.605192971</v>
+        <v>4431992.416051203</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.235776563754594e-07</v>
+        <v>1.400027432093585e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.80034722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>3842789.961469313</v>
+        <v>4009009.280203533</v>
       </c>
     </row>
     <row r="6">
@@ -14932,28 +14932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2901.630131240523</v>
+        <v>3035.845978741422</v>
       </c>
       <c r="AB6" t="n">
-        <v>3970.138356450347</v>
+        <v>4153.778400186382</v>
       </c>
       <c r="AC6" t="n">
-        <v>3591.233923834754</v>
+        <v>3757.347619537036</v>
       </c>
       <c r="AD6" t="n">
-        <v>2901630.131240523</v>
+        <v>3035845.978741422</v>
       </c>
       <c r="AE6" t="n">
-        <v>3970138.356450347</v>
+        <v>4153778.400186382</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.54634750033773e-07</v>
+        <v>1.452822432961016e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.89539930555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>3591233.923834755</v>
+        <v>3757347.619537036</v>
       </c>
     </row>
     <row r="7">
@@ -15038,28 +15038,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2775.819543888229</v>
+        <v>2899.698055573831</v>
       </c>
       <c r="AB7" t="n">
-        <v>3797.99876046354</v>
+        <v>3967.494805286014</v>
       </c>
       <c r="AC7" t="n">
-        <v>3435.523089289496</v>
+        <v>3588.842669483299</v>
       </c>
       <c r="AD7" t="n">
-        <v>2775819.543888229</v>
+        <v>2899698.05557383</v>
       </c>
       <c r="AE7" t="n">
-        <v>3797998.76046354</v>
+        <v>3967494.805286014</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.750571419242396e-07</v>
+        <v>1.487539145652629e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.33984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3435523.089289496</v>
+        <v>3588842.669483299</v>
       </c>
     </row>
     <row r="8">
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2665.592605142398</v>
+        <v>2789.556368174019</v>
       </c>
       <c r="AB8" t="n">
-        <v>3647.181400002151</v>
+        <v>3816.794089477274</v>
       </c>
       <c r="AC8" t="n">
-        <v>3299.099526037052</v>
+        <v>3452.524618481568</v>
       </c>
       <c r="AD8" t="n">
-        <v>2665592.605142398</v>
+        <v>2789556.368174019</v>
       </c>
       <c r="AE8" t="n">
-        <v>3647181.400002151</v>
+        <v>3816794.089477274</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.902092391332957e-07</v>
+        <v>1.513296706681891e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.94270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3299099.526037052</v>
+        <v>3452524.618481568</v>
       </c>
     </row>
     <row r="9">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2583.450355583418</v>
+        <v>2707.41411861504</v>
       </c>
       <c r="AB9" t="n">
-        <v>3534.790750295257</v>
+        <v>3704.40343977038</v>
       </c>
       <c r="AC9" t="n">
-        <v>3197.435282196921</v>
+        <v>3350.860374641436</v>
       </c>
       <c r="AD9" t="n">
-        <v>2583450.355583418</v>
+        <v>2707414.11861504</v>
       </c>
       <c r="AE9" t="n">
-        <v>3534790.750295257</v>
+        <v>3704403.43977038</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.021615145714952e-07</v>
+        <v>1.533614782773296e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.63888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>3197435.282196921</v>
+        <v>3350860.374641437</v>
       </c>
     </row>
     <row r="10">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2509.79279405645</v>
+        <v>2623.419221272772</v>
       </c>
       <c r="AB10" t="n">
-        <v>3434.009225071779</v>
+        <v>3589.477915633341</v>
       </c>
       <c r="AC10" t="n">
-        <v>3106.272204293017</v>
+        <v>3246.903181229055</v>
       </c>
       <c r="AD10" t="n">
-        <v>2509792.79405645</v>
+        <v>2623419.221272772</v>
       </c>
       <c r="AE10" t="n">
-        <v>3434009.225071779</v>
+        <v>3589477.915633341</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.114786426689893e-07</v>
+        <v>1.549453283033525e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.40668402777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>3106272.204293017</v>
+        <v>3246903.181229054</v>
       </c>
     </row>
     <row r="11">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2443.975220174972</v>
+        <v>2557.601647391295</v>
       </c>
       <c r="AB11" t="n">
-        <v>3343.954716820708</v>
+        <v>3499.423407382269</v>
       </c>
       <c r="AC11" t="n">
-        <v>3024.812371917135</v>
+        <v>3165.443348853173</v>
       </c>
       <c r="AD11" t="n">
-        <v>2443975.220174972</v>
+        <v>2557601.647391295</v>
       </c>
       <c r="AE11" t="n">
-        <v>3343954.716820708</v>
+        <v>3499423.407382269</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.188194102609541e-07</v>
+        <v>1.561932101420372e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.22873263888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>3024812.371917135</v>
+        <v>3165443.348853173</v>
       </c>
     </row>
     <row r="12">
@@ -15568,28 +15568,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2386.196244104912</v>
+        <v>2499.822671321235</v>
       </c>
       <c r="AB12" t="n">
-        <v>3264.898972733124</v>
+        <v>3420.367663294685</v>
       </c>
       <c r="AC12" t="n">
-        <v>2953.301597089839</v>
+        <v>3093.932574025877</v>
       </c>
       <c r="AD12" t="n">
-        <v>2386196.244104912</v>
+        <v>2499822.671321235</v>
       </c>
       <c r="AE12" t="n">
-        <v>3264898.972733124</v>
+        <v>3420367.663294685</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.249367165875918e-07</v>
+        <v>1.572331116742745e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.08116319444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>2953301.597089839</v>
+        <v>3093932.574025877</v>
       </c>
     </row>
     <row r="13">
@@ -15674,28 +15674,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2319.57752863147</v>
+        <v>2443.455950808519</v>
       </c>
       <c r="AB13" t="n">
-        <v>3173.748307212054</v>
+        <v>3343.24422956498</v>
       </c>
       <c r="AC13" t="n">
-        <v>2870.850223155341</v>
+        <v>3024.169692567918</v>
       </c>
       <c r="AD13" t="n">
-        <v>2319577.52863147</v>
+        <v>2443455.950808519</v>
       </c>
       <c r="AE13" t="n">
-        <v>3173748.307212054</v>
+        <v>3343244.22956498</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.301128988639773e-07</v>
+        <v>1.581130283553983e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.95963541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2870850.223155341</v>
+        <v>3024169.692567918</v>
       </c>
     </row>
     <row r="14">
@@ -15780,28 +15780,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2274.060179816175</v>
+        <v>2397.938601993224</v>
       </c>
       <c r="AB14" t="n">
-        <v>3111.469462479257</v>
+        <v>3280.965384832182</v>
       </c>
       <c r="AC14" t="n">
-        <v>2814.515183954937</v>
+        <v>2967.834653367514</v>
       </c>
       <c r="AD14" t="n">
-        <v>2274060.179816175</v>
+        <v>2397938.601993224</v>
       </c>
       <c r="AE14" t="n">
-        <v>3111469.462479257</v>
+        <v>3280965.384832182</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.339715074700103e-07</v>
+        <v>1.587689662449633e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.86631944444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>2814515.183954937</v>
+        <v>2967834.653367514</v>
       </c>
     </row>
     <row r="15">
@@ -15886,28 +15886,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2260.476614321306</v>
+        <v>2384.355036498356</v>
       </c>
       <c r="AB15" t="n">
-        <v>3092.883828904562</v>
+        <v>3262.379751257486</v>
       </c>
       <c r="AC15" t="n">
-        <v>2797.70333716351</v>
+        <v>2951.022806576088</v>
       </c>
       <c r="AD15" t="n">
-        <v>2260476.614321306</v>
+        <v>2384355.036498356</v>
       </c>
       <c r="AE15" t="n">
-        <v>3092883.828904562</v>
+        <v>3262379.751257486</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.354773059504133e-07</v>
+        <v>1.590249420067448e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.83159722222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>2797703.33716351</v>
+        <v>2951022.806576088</v>
       </c>
     </row>
     <row r="16">
@@ -15992,28 +15992,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2271.176855274218</v>
+        <v>2395.055277451267</v>
       </c>
       <c r="AB16" t="n">
-        <v>3107.52437063765</v>
+        <v>3277.020292990574</v>
       </c>
       <c r="AC16" t="n">
-        <v>2810.946606141722</v>
+        <v>2964.266075554298</v>
       </c>
       <c r="AD16" t="n">
-        <v>2271176.855274218</v>
+        <v>2395055.277451267</v>
       </c>
       <c r="AE16" t="n">
-        <v>3107524.37063765</v>
+        <v>3277020.292990575</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.352890811403629e-07</v>
+        <v>1.589929450365221e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.8359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>2810946.606141721</v>
+        <v>2964266.075554298</v>
       </c>
     </row>
   </sheetData>
@@ -16289,28 +16289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4057.351973298985</v>
+        <v>4220.519869238012</v>
       </c>
       <c r="AB2" t="n">
-        <v>5551.447967604026</v>
+        <v>5774.70148128734</v>
       </c>
       <c r="AC2" t="n">
-        <v>5021.625565081846</v>
+        <v>5223.572076757491</v>
       </c>
       <c r="AD2" t="n">
-        <v>4057351.973298986</v>
+        <v>4220519.869238012</v>
       </c>
       <c r="AE2" t="n">
-        <v>5551447.967604026</v>
+        <v>5774701.481287341</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.621044155627718e-07</v>
+        <v>1.193930941610484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.37022569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>5021625.565081846</v>
+        <v>5223572.076757492</v>
       </c>
     </row>
     <row r="3">
@@ -16395,28 +16395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2583.564942072436</v>
+        <v>2717.908309419448</v>
       </c>
       <c r="AB3" t="n">
-        <v>3534.947532584731</v>
+        <v>3718.762054599998</v>
       </c>
       <c r="AC3" t="n">
-        <v>3197.577101404732</v>
+        <v>3363.848623424158</v>
       </c>
       <c r="AD3" t="n">
-        <v>2583564.942072436</v>
+        <v>2717908.309419448</v>
       </c>
       <c r="AE3" t="n">
-        <v>3534947.532584731</v>
+        <v>3718762.054599998</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.577932801962713e-07</v>
+        <v>1.546804272346352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.75954861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>3197577.101404732</v>
+        <v>3363848.623424158</v>
       </c>
     </row>
     <row r="4">
@@ -16501,28 +16501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2219.365557799859</v>
+        <v>2344.100778785717</v>
       </c>
       <c r="AB4" t="n">
-        <v>3036.633867680104</v>
+        <v>3207.302099962539</v>
       </c>
       <c r="AC4" t="n">
-        <v>2746.821793291002</v>
+        <v>2901.201689018762</v>
       </c>
       <c r="AD4" t="n">
-        <v>2219365.557799859</v>
+        <v>2344100.778785718</v>
       </c>
       <c r="AE4" t="n">
-        <v>3036633.867680104</v>
+        <v>3207302.099962539</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.278421557778777e-07</v>
+        <v>1.673118971381876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.81293402777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2746821.793291002</v>
+        <v>2901201.689018762</v>
       </c>
     </row>
     <row r="5">
@@ -16607,28 +16607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2024.841331223216</v>
+        <v>2140.053746702491</v>
       </c>
       <c r="AB5" t="n">
-        <v>2770.477239074562</v>
+        <v>2928.115948746352</v>
       </c>
       <c r="AC5" t="n">
-        <v>2506.066779766512</v>
+        <v>2648.660672234545</v>
       </c>
       <c r="AD5" t="n">
-        <v>2024841.331223215</v>
+        <v>2140053.746702491</v>
       </c>
       <c r="AE5" t="n">
-        <v>2770477.239074563</v>
+        <v>2928115.948746352</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.643938219607221e-07</v>
+        <v>1.739030275093727e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.91015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2506066.779766513</v>
+        <v>2648660.672234545</v>
       </c>
     </row>
     <row r="6">
@@ -16713,28 +16713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1889.893705590588</v>
+        <v>1995.498064217262</v>
       </c>
       <c r="AB6" t="n">
-        <v>2585.835944214934</v>
+        <v>2730.32848662344</v>
       </c>
       <c r="AC6" t="n">
-        <v>2339.047390942602</v>
+        <v>2469.749767900197</v>
       </c>
       <c r="AD6" t="n">
-        <v>1889893.705590588</v>
+        <v>1995498.064217262</v>
       </c>
       <c r="AE6" t="n">
-        <v>2585835.944214934</v>
+        <v>2730328.48662344</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.874040630674705e-07</v>
+        <v>1.780523184951326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.37847222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>2339047.390942602</v>
+        <v>2469749.767900197</v>
       </c>
     </row>
     <row r="7">
@@ -16819,28 +16819,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1819.360823708093</v>
+        <v>1924.965182334766</v>
       </c>
       <c r="AB7" t="n">
-        <v>2489.329743532168</v>
+        <v>2633.822285940674</v>
       </c>
       <c r="AC7" t="n">
-        <v>2251.751606605696</v>
+        <v>2382.453983563291</v>
       </c>
       <c r="AD7" t="n">
-        <v>1819360.823708093</v>
+        <v>1924965.182334766</v>
       </c>
       <c r="AE7" t="n">
-        <v>2489329.743532168</v>
+        <v>2633822.285940674</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.97585585681076e-07</v>
+        <v>1.798882879578582e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.15060763888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>2251751.606605696</v>
+        <v>2382453.983563291</v>
       </c>
     </row>
     <row r="8">
@@ -16925,28 +16925,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1822.398283295073</v>
+        <v>1928.002641921746</v>
       </c>
       <c r="AB8" t="n">
-        <v>2493.485729742332</v>
+        <v>2637.978272150839</v>
       </c>
       <c r="AC8" t="n">
-        <v>2255.510951324925</v>
+        <v>2386.21332828252</v>
       </c>
       <c r="AD8" t="n">
-        <v>1822398.283295073</v>
+        <v>1928002.641921746</v>
       </c>
       <c r="AE8" t="n">
-        <v>2493485.729742332</v>
+        <v>2637978.272150839</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.981964770378925e-07</v>
+        <v>1.799984461256218e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2255510.951324925</v>
+        <v>2386213.32828252</v>
       </c>
     </row>
   </sheetData>
@@ -17222,28 +17222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2908.303070304566</v>
+        <v>3056.159916587043</v>
       </c>
       <c r="AB2" t="n">
-        <v>3979.268566067064</v>
+        <v>4181.57282613445</v>
       </c>
       <c r="AC2" t="n">
-        <v>3599.492759059982</v>
+        <v>3782.489384482341</v>
       </c>
       <c r="AD2" t="n">
-        <v>2908303.070304566</v>
+        <v>3056159.916587043</v>
       </c>
       <c r="AE2" t="n">
-        <v>3979268.566067064</v>
+        <v>4181572.82613445</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.742213208069557e-07</v>
+        <v>1.444449510403064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.72873263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3599492.759059982</v>
+        <v>3782489.384482341</v>
       </c>
     </row>
     <row r="3">
@@ -17328,28 +17328,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2011.026956683409</v>
+        <v>2121.962351331103</v>
       </c>
       <c r="AB3" t="n">
-        <v>2751.575802382008</v>
+        <v>2903.362503463185</v>
       </c>
       <c r="AC3" t="n">
-        <v>2488.969269663562</v>
+        <v>2626.269661027525</v>
       </c>
       <c r="AD3" t="n">
-        <v>2011026.956683409</v>
+        <v>2121962.351331103</v>
       </c>
       <c r="AE3" t="n">
-        <v>2751575.802382008</v>
+        <v>2903362.503463184</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.44974242245202e-07</v>
+        <v>1.76301988187552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.35546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2488969.269663562</v>
+        <v>2626269.661027525</v>
       </c>
     </row>
     <row r="4">
@@ -17434,28 +17434,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1730.117680002256</v>
+        <v>1841.052985141399</v>
       </c>
       <c r="AB4" t="n">
-        <v>2367.22333718421</v>
+        <v>2519.009915795838</v>
       </c>
       <c r="AC4" t="n">
-        <v>2141.298864302169</v>
+        <v>2278.599144884905</v>
       </c>
       <c r="AD4" t="n">
-        <v>1730117.680002256</v>
+        <v>1841052.985141399</v>
       </c>
       <c r="AE4" t="n">
-        <v>2367223.33718421</v>
+        <v>2519009.915795838</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.005215024466894e-06</v>
+        <v>1.875409925972635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.89496527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2141298.864302169</v>
+        <v>2278599.144884905</v>
       </c>
     </row>
     <row r="5">
@@ -17540,28 +17540,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1627.966663677271</v>
+        <v>1738.731376615822</v>
       </c>
       <c r="AB5" t="n">
-        <v>2227.455810063584</v>
+        <v>2379.008976900366</v>
       </c>
       <c r="AC5" t="n">
-        <v>2014.870553804979</v>
+        <v>2151.959699105064</v>
       </c>
       <c r="AD5" t="n">
-        <v>1627966.663677271</v>
+        <v>1738731.376615822</v>
       </c>
       <c r="AE5" t="n">
-        <v>2227455.810063584</v>
+        <v>2379008.976900366</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.02547204806609e-06</v>
+        <v>1.91320305699825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.44357638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2014870.553804979</v>
+        <v>2151959.699105064</v>
       </c>
     </row>
     <row r="6">
@@ -17646,28 +17646,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1637.39347923186</v>
+        <v>1739.077153380078</v>
       </c>
       <c r="AB6" t="n">
-        <v>2240.353994987124</v>
+        <v>2379.482083923815</v>
       </c>
       <c r="AC6" t="n">
-        <v>2026.537754062133</v>
+        <v>2152.387653458205</v>
       </c>
       <c r="AD6" t="n">
-        <v>1637393.47923186</v>
+        <v>1739077.153380078</v>
       </c>
       <c r="AE6" t="n">
-        <v>2240353.994987124</v>
+        <v>2379482.083923815</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.026002336641985e-06</v>
+        <v>1.914192405977978e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.43272569444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2026537.754062133</v>
+        <v>2152387.653458206</v>
       </c>
     </row>
   </sheetData>
@@ -32572,28 +32572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2218.136718831485</v>
+        <v>2343.50164368179</v>
       </c>
       <c r="AB2" t="n">
-        <v>3034.952515991025</v>
+        <v>3206.48233688137</v>
       </c>
       <c r="AC2" t="n">
-        <v>2745.300907447336</v>
+        <v>2900.460162975515</v>
       </c>
       <c r="AD2" t="n">
-        <v>2218136.718831485</v>
+        <v>2343501.643681791</v>
       </c>
       <c r="AE2" t="n">
-        <v>3034952.515991026</v>
+        <v>3206482.33688137</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.683690818661088e-07</v>
+        <v>1.669905946686947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.41970486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2745300.907447336</v>
+        <v>2900460.162975515</v>
       </c>
     </row>
     <row r="3">
@@ -32678,28 +32678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1598.495404252447</v>
+        <v>1705.926683809767</v>
       </c>
       <c r="AB3" t="n">
-        <v>2187.131932738336</v>
+        <v>2334.124148962216</v>
       </c>
       <c r="AC3" t="n">
-        <v>1978.395130736736</v>
+        <v>2111.358616149079</v>
       </c>
       <c r="AD3" t="n">
-        <v>1598495.404252447</v>
+        <v>1705926.683809767</v>
       </c>
       <c r="AE3" t="n">
-        <v>2187131.932738336</v>
+        <v>2334124.148962216</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.017686873454204e-06</v>
+        <v>1.957049597153268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.39626736111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1978395.130736736</v>
+        <v>2111358.61614908</v>
       </c>
     </row>
     <row r="4">
@@ -32784,28 +32784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1492.545345929145</v>
+        <v>1600.061876832486</v>
       </c>
       <c r="AB4" t="n">
-        <v>2042.166388753709</v>
+        <v>2189.275249630238</v>
       </c>
       <c r="AC4" t="n">
-        <v>1847.264894809583</v>
+        <v>1980.333892472639</v>
       </c>
       <c r="AD4" t="n">
-        <v>1492545.345929145</v>
+        <v>1600061.876832486</v>
       </c>
       <c r="AE4" t="n">
-        <v>2042166.388753709</v>
+        <v>2189275.249630238</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.042810881002825e-06</v>
+        <v>2.005363995358108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.83203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1847264.894809583</v>
+        <v>1980333.892472639</v>
       </c>
     </row>
   </sheetData>
@@ -33081,28 +33081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1244.312883773904</v>
+        <v>1353.454410670666</v>
       </c>
       <c r="AB2" t="n">
-        <v>1702.523782789578</v>
+        <v>1851.856034874071</v>
       </c>
       <c r="AC2" t="n">
-        <v>1540.037302467277</v>
+        <v>1675.117494001957</v>
       </c>
       <c r="AD2" t="n">
-        <v>1244312.883773904</v>
+        <v>1353454.410670666</v>
       </c>
       <c r="AE2" t="n">
-        <v>1702523.782789578</v>
+        <v>1851856.034874071</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042478412786345e-06</v>
+        <v>2.150215266748425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.51388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1540037.302467277</v>
+        <v>1675117.494001957</v>
       </c>
     </row>
     <row r="3">
@@ -33187,28 +33187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1257.115455382496</v>
+        <v>1366.086390078666</v>
       </c>
       <c r="AB3" t="n">
-        <v>1720.040826074051</v>
+        <v>1869.139666383697</v>
       </c>
       <c r="AC3" t="n">
-        <v>1555.882543726004</v>
+        <v>1690.751599978034</v>
       </c>
       <c r="AD3" t="n">
-        <v>1257115.455382496</v>
+        <v>1366086.390078666</v>
       </c>
       <c r="AE3" t="n">
-        <v>1720040.826074051</v>
+        <v>1869139.666383697</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.044126972345705e-06</v>
+        <v>2.153615584576786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.47482638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1555882.543726004</v>
+        <v>1690751.599978034</v>
       </c>
     </row>
   </sheetData>
@@ -33484,28 +33484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5468.2321219681</v>
+        <v>5656.526415401659</v>
       </c>
       <c r="AB2" t="n">
-        <v>7481.87643065244</v>
+        <v>7739.508989886202</v>
       </c>
       <c r="AC2" t="n">
-        <v>6767.816644990211</v>
+        <v>7000.861114360262</v>
       </c>
       <c r="AD2" t="n">
-        <v>5468232.1219681</v>
+        <v>5656526.415401659</v>
       </c>
       <c r="AE2" t="n">
-        <v>7481876.43065244</v>
+        <v>7739508.989886203</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.683086335961213e-07</v>
+        <v>9.984958507168629e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.60633680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>6767816.644990211</v>
+        <v>7000861.114360262</v>
       </c>
     </row>
     <row r="3">
@@ -33590,28 +33590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3173.935235001553</v>
+        <v>3312.507806383584</v>
       </c>
       <c r="AB3" t="n">
-        <v>4342.718212669533</v>
+        <v>4532.319318224829</v>
       </c>
       <c r="AC3" t="n">
-        <v>3928.255281495482</v>
+        <v>4099.761123643395</v>
       </c>
       <c r="AD3" t="n">
-        <v>3173935.235001553</v>
+        <v>3312507.806383585</v>
       </c>
       <c r="AE3" t="n">
-        <v>4342718.212669534</v>
+        <v>4532319.318224829</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.847602670468706e-07</v>
+        <v>1.378792832154338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.23307291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3928255.281495482</v>
+        <v>4099761.123643395</v>
       </c>
     </row>
     <row r="4">
@@ -33696,28 +33696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2676.148468303257</v>
+        <v>2804.896065061121</v>
       </c>
       <c r="AB4" t="n">
-        <v>3661.624397670654</v>
+        <v>3837.782539497873</v>
       </c>
       <c r="AC4" t="n">
-        <v>3312.164104278948</v>
+        <v>3471.509960289676</v>
       </c>
       <c r="AD4" t="n">
-        <v>2676148.468303257</v>
+        <v>2804896.065061121</v>
       </c>
       <c r="AE4" t="n">
-        <v>3661624.397670654</v>
+        <v>3837782.539497873</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.639354778268535e-07</v>
+        <v>1.517900554208809e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.73741319444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>3312164.104278948</v>
+        <v>3471509.960289676</v>
       </c>
     </row>
     <row r="5">
@@ -33802,28 +33802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2437.674823281264</v>
+        <v>2556.597534923512</v>
       </c>
       <c r="AB5" t="n">
-        <v>3335.334235836842</v>
+        <v>3498.049536405534</v>
       </c>
       <c r="AC5" t="n">
-        <v>3017.014617539448</v>
+        <v>3164.200598194217</v>
       </c>
       <c r="AD5" t="n">
-        <v>2437674.823281264</v>
+        <v>2556597.534923512</v>
       </c>
       <c r="AE5" t="n">
-        <v>3335334.235836842</v>
+        <v>3498049.536405534</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.061819522355758e-07</v>
+        <v>1.592125943215487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.58289930555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>3017014.617539448</v>
+        <v>3164200.598194217</v>
       </c>
     </row>
     <row r="6">
@@ -33908,28 +33908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2287.298854311046</v>
+        <v>2406.136225098724</v>
       </c>
       <c r="AB6" t="n">
-        <v>3129.58320097224</v>
+        <v>3292.181734418734</v>
       </c>
       <c r="AC6" t="n">
-        <v>2830.900172668941</v>
+        <v>2977.980530291771</v>
       </c>
       <c r="AD6" t="n">
-        <v>2287298.854311046</v>
+        <v>2406136.225098724</v>
       </c>
       <c r="AE6" t="n">
-        <v>3129583.20097224</v>
+        <v>3292181.734418734</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.310965397073863e-07</v>
+        <v>1.635899890578399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.95138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2830900.172668941</v>
+        <v>2977980.530291771</v>
       </c>
     </row>
     <row r="7">
@@ -34014,28 +34014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2175.258721044067</v>
+        <v>2294.096091831746</v>
       </c>
       <c r="AB7" t="n">
-        <v>2976.284947774349</v>
+        <v>3138.883481221018</v>
       </c>
       <c r="AC7" t="n">
-        <v>2692.232489600925</v>
+        <v>2839.3128472238</v>
       </c>
       <c r="AD7" t="n">
-        <v>2175258.721044067</v>
+        <v>2294096.091831747</v>
       </c>
       <c r="AE7" t="n">
-        <v>2976284.947774349</v>
+        <v>3138883.481221018</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.486253799049449e-07</v>
+        <v>1.666697371331752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.52821180555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2692232.489600924</v>
+        <v>2839312.8472238</v>
       </c>
     </row>
     <row r="8">
@@ -34120,28 +34120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2081.704162626252</v>
+        <v>2190.631396952296</v>
       </c>
       <c r="AB8" t="n">
-        <v>2848.27947361127</v>
+        <v>2997.318521146756</v>
       </c>
       <c r="AC8" t="n">
-        <v>2576.443678235159</v>
+        <v>2711.258648251362</v>
       </c>
       <c r="AD8" t="n">
-        <v>2081704.162626252</v>
+        <v>2190631.396952296</v>
       </c>
       <c r="AE8" t="n">
-        <v>2848279.47361127</v>
+        <v>2997318.521146756</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.618212483682751e-07</v>
+        <v>1.689881991674164e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.22005208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2576443.678235159</v>
+        <v>2711258.648251362</v>
       </c>
     </row>
     <row r="9">
@@ -34226,28 +34226,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2005.845030315807</v>
+        <v>2114.772264641847</v>
       </c>
       <c r="AB9" t="n">
-        <v>2744.485662115398</v>
+        <v>2893.524709650707</v>
       </c>
       <c r="AC9" t="n">
-        <v>2482.555802432923</v>
+        <v>2617.37077244908</v>
       </c>
       <c r="AD9" t="n">
-        <v>2005845.030315807</v>
+        <v>2114772.264641847</v>
       </c>
       <c r="AE9" t="n">
-        <v>2744485.662115398</v>
+        <v>2893524.709650707</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.701917619457609e-07</v>
+        <v>1.704588653831664e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.02690972222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2482555.802432923</v>
+        <v>2617370.77244908</v>
       </c>
     </row>
     <row r="10">
@@ -34332,28 +34332,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1982.070446274561</v>
+        <v>2100.822476207667</v>
       </c>
       <c r="AB10" t="n">
-        <v>2711.956227369542</v>
+        <v>2874.437993693829</v>
       </c>
       <c r="AC10" t="n">
-        <v>2453.130931283863</v>
+        <v>2600.105665874752</v>
       </c>
       <c r="AD10" t="n">
-        <v>1982070.446274561</v>
+        <v>2100822.476207667</v>
       </c>
       <c r="AE10" t="n">
-        <v>2711956.227369542</v>
+        <v>2874437.99369383</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.720628179219048e-07</v>
+        <v>1.707876025372752e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.98350694444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>2453130.931283863</v>
+        <v>2600105.665874752</v>
       </c>
     </row>
     <row r="11">
@@ -34438,28 +34438,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1991.71367215397</v>
+        <v>2110.465702087076</v>
       </c>
       <c r="AB11" t="n">
-        <v>2725.150514446851</v>
+        <v>2887.632280771138</v>
       </c>
       <c r="AC11" t="n">
-        <v>2465.065974120811</v>
+        <v>2612.0407087117</v>
       </c>
       <c r="AD11" t="n">
-        <v>1991713.67215397</v>
+        <v>2110465.702087076</v>
       </c>
       <c r="AE11" t="n">
-        <v>2725150.514446851</v>
+        <v>2887632.280771138</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.721612945522284e-07</v>
+        <v>1.708049044927547e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.98133680555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>2465065.974120812</v>
+        <v>2612040.7087117</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7958.551873879316</v>
+        <v>8194.22779658971</v>
       </c>
       <c r="AB2" t="n">
-        <v>10889.24178037112</v>
+        <v>11211.70397511141</v>
       </c>
       <c r="AC2" t="n">
-        <v>9849.987827998919</v>
+        <v>10141.67468345171</v>
       </c>
       <c r="AD2" t="n">
-        <v>7958551.873879316</v>
+        <v>8194227.796589711</v>
       </c>
       <c r="AE2" t="n">
-        <v>10889241.78037112</v>
+        <v>11211703.97511141</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.642273901728292e-07</v>
+        <v>7.937771025831103e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.36414930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>9849987.827998919</v>
+        <v>10141674.68345171</v>
       </c>
     </row>
     <row r="3">
@@ -34841,28 +34841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4018.531281493291</v>
+        <v>4172.229290878932</v>
       </c>
       <c r="AB3" t="n">
-        <v>5498.331784427421</v>
+        <v>5708.628181546486</v>
       </c>
       <c r="AC3" t="n">
-        <v>4973.578715878587</v>
+        <v>5163.804720009447</v>
       </c>
       <c r="AD3" t="n">
-        <v>4018531.281493291</v>
+        <v>4172229.290878932</v>
       </c>
       <c r="AE3" t="n">
-        <v>5498331.78442742</v>
+        <v>5708628.181546486</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.009909507781458e-07</v>
+        <v>1.198616405719835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.37934027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>4973578.715878587</v>
+        <v>5163804.720009447</v>
       </c>
     </row>
     <row r="4">
@@ -34947,28 +34947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3295.340789201257</v>
+        <v>3428.60832589664</v>
       </c>
       <c r="AB4" t="n">
-        <v>4508.83064796062</v>
+        <v>4691.173171016027</v>
       </c>
       <c r="AC4" t="n">
-        <v>4078.514179102647</v>
+        <v>4243.454187676978</v>
       </c>
       <c r="AD4" t="n">
-        <v>3295340.789201257</v>
+        <v>3428608.325896639</v>
       </c>
       <c r="AE4" t="n">
-        <v>4508830.64796062</v>
+        <v>4691173.171016026</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.912362999307133e-07</v>
+        <v>1.352925895612832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.02647569444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>4078514.179102647</v>
+        <v>4243454.187676978</v>
       </c>
     </row>
     <row r="5">
@@ -35053,28 +35053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2973.888160382857</v>
+        <v>3107.155607569688</v>
       </c>
       <c r="AB5" t="n">
-        <v>4069.004979722155</v>
+        <v>4251.347380308014</v>
       </c>
       <c r="AC5" t="n">
-        <v>3680.664855341676</v>
+        <v>3845.60475313478</v>
       </c>
       <c r="AD5" t="n">
-        <v>2973888.160382857</v>
+        <v>3107155.607569688</v>
       </c>
       <c r="AE5" t="n">
-        <v>4069004.979722155</v>
+        <v>4251347.380308014</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.386839072664482e-07</v>
+        <v>1.434056016481915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.55512152777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>3680664.855341676</v>
+        <v>3845604.75313478</v>
       </c>
     </row>
     <row r="6">
@@ -35159,28 +35159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2786.017236305249</v>
+        <v>2909.112117574236</v>
       </c>
       <c r="AB6" t="n">
-        <v>3811.951693118944</v>
+        <v>3980.375540234073</v>
       </c>
       <c r="AC6" t="n">
-        <v>3448.144373635332</v>
+        <v>3600.49408516614</v>
       </c>
       <c r="AD6" t="n">
-        <v>2786017.236305249</v>
+        <v>2909112.117574235</v>
       </c>
       <c r="AE6" t="n">
-        <v>3811951.693118944</v>
+        <v>3980375.540234073</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.682912142439467e-07</v>
+        <v>1.484681211904223e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.71744791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3448144.373635332</v>
+        <v>3600494.08516614</v>
       </c>
     </row>
     <row r="7">
@@ -35265,28 +35265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2662.6664744319</v>
+        <v>2785.590763500295</v>
       </c>
       <c r="AB7" t="n">
-        <v>3643.177738872271</v>
+        <v>3811.368174212553</v>
       </c>
       <c r="AC7" t="n">
-        <v>3295.477968706235</v>
+        <v>3447.616544954393</v>
       </c>
       <c r="AD7" t="n">
-        <v>2662666.4744319</v>
+        <v>2785590.763500295</v>
       </c>
       <c r="AE7" t="n">
-        <v>3643177.738872271</v>
+        <v>3811368.174212553</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.884089997542983e-07</v>
+        <v>1.519080383152714e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.18142361111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>3295477.968706235</v>
+        <v>3447616.544954393</v>
       </c>
     </row>
     <row r="8">
@@ -35371,28 +35371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2552.666369846523</v>
+        <v>2675.675910260938</v>
       </c>
       <c r="AB8" t="n">
-        <v>3492.670742916434</v>
+        <v>3660.977822909365</v>
       </c>
       <c r="AC8" t="n">
-        <v>3159.335149206533</v>
+        <v>3311.579237705403</v>
       </c>
       <c r="AD8" t="n">
-        <v>2552666.369846523</v>
+        <v>2675675.910260938</v>
       </c>
       <c r="AE8" t="n">
-        <v>3492670.742916434</v>
+        <v>3660977.822909365</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.034973388870618e-07</v>
+        <v>1.544879761589082e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.79296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>3159335.149206533</v>
+        <v>3311579.237705403</v>
       </c>
     </row>
     <row r="9">
@@ -35477,28 +35477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2471.983272216826</v>
+        <v>2594.992812631242</v>
       </c>
       <c r="AB9" t="n">
-        <v>3382.276569252424</v>
+        <v>3550.583649245356</v>
       </c>
       <c r="AC9" t="n">
-        <v>3059.476840537825</v>
+        <v>3211.720929036695</v>
       </c>
       <c r="AD9" t="n">
-        <v>2471983.272216826</v>
+        <v>2594992.812631242</v>
       </c>
       <c r="AE9" t="n">
-        <v>3382276.569252424</v>
+        <v>3550583.649245356</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.150745550769812e-07</v>
+        <v>1.564675511081139e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.50434027777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>3059476.840537825</v>
+        <v>3211720.929036695</v>
       </c>
     </row>
     <row r="10">
@@ -35583,28 +35583,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2402.335078342604</v>
+        <v>2515.086801493155</v>
       </c>
       <c r="AB10" t="n">
-        <v>3286.980837732252</v>
+        <v>3441.252719601804</v>
       </c>
       <c r="AC10" t="n">
-        <v>2973.275999885541</v>
+        <v>3112.824389871404</v>
       </c>
       <c r="AD10" t="n">
-        <v>2402335.078342604</v>
+        <v>2515086.801493155</v>
       </c>
       <c r="AE10" t="n">
-        <v>3286980.837732252</v>
+        <v>3441252.719601804</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.238049148267563e-07</v>
+        <v>1.57960345332105e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2973275.999885541</v>
+        <v>3112824.389871404</v>
       </c>
     </row>
     <row r="11">
@@ -35689,28 +35689,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2333.566961706572</v>
+        <v>2446.318684857122</v>
       </c>
       <c r="AB11" t="n">
-        <v>3192.889266715638</v>
+        <v>3347.161148585191</v>
       </c>
       <c r="AC11" t="n">
-        <v>2888.164396348408</v>
+        <v>3027.712786334271</v>
       </c>
       <c r="AD11" t="n">
-        <v>2333566.961706572</v>
+        <v>2446318.684857122</v>
       </c>
       <c r="AE11" t="n">
-        <v>3192889.266715638</v>
+        <v>3347161.148585191</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.31396532000474e-07</v>
+        <v>1.592584272660103e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.11154513888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>2888164.396348408</v>
+        <v>3027712.786334271</v>
       </c>
     </row>
     <row r="12">
@@ -35795,28 +35795,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2260.99998341522</v>
+        <v>2383.924182975064</v>
       </c>
       <c r="AB12" t="n">
-        <v>3093.599925588269</v>
+        <v>3261.790238459002</v>
       </c>
       <c r="AC12" t="n">
-        <v>2798.351090584772</v>
+        <v>2950.489556051704</v>
       </c>
       <c r="AD12" t="n">
-        <v>2260999.98341522</v>
+        <v>2383924.182975064</v>
       </c>
       <c r="AE12" t="n">
-        <v>3093599.925588269</v>
+        <v>3261790.238459003</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.369953496660907e-07</v>
+        <v>1.602157626922655e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.97699652777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>2798351.090584773</v>
+        <v>2950489.556051704</v>
       </c>
     </row>
     <row r="13">
@@ -35901,28 +35901,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2213.594136537207</v>
+        <v>2336.51833609705</v>
       </c>
       <c r="AB13" t="n">
-        <v>3028.737154491407</v>
+        <v>3196.927467362141</v>
       </c>
       <c r="AC13" t="n">
-        <v>2739.678731325927</v>
+        <v>2891.817196792859</v>
       </c>
       <c r="AD13" t="n">
-        <v>2213594.136537207</v>
+        <v>2336518.33609705</v>
       </c>
       <c r="AE13" t="n">
-        <v>3028737.154491407</v>
+        <v>3196927.467362141</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.410758438969639e-07</v>
+        <v>1.609134817317396e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.88368055555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>2739678.731325927</v>
+        <v>2891817.196792859</v>
       </c>
     </row>
     <row r="14">
@@ -36007,28 +36007,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2207.143575991196</v>
+        <v>2330.067775551039</v>
       </c>
       <c r="AB14" t="n">
-        <v>3019.911212973706</v>
+        <v>3188.10152584444</v>
       </c>
       <c r="AC14" t="n">
-        <v>2731.695125279389</v>
+        <v>2883.833590746321</v>
       </c>
       <c r="AD14" t="n">
-        <v>2207143.575991196</v>
+        <v>2330067.775551039</v>
       </c>
       <c r="AE14" t="n">
-        <v>3019911.212973706</v>
+        <v>3188101.52584444</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.422145864730215e-07</v>
+        <v>1.611081940218254e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.85546875</v>
       </c>
       <c r="AH14" t="n">
-        <v>2731695.125279389</v>
+        <v>2883833.590746321</v>
       </c>
     </row>
     <row r="15">
@@ -36113,28 +36113,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2216.847255999116</v>
+        <v>2339.77145555896</v>
       </c>
       <c r="AB15" t="n">
-        <v>3033.188216056692</v>
+        <v>3201.378528927426</v>
       </c>
       <c r="AC15" t="n">
-        <v>2743.704989822526</v>
+        <v>2895.843455289457</v>
       </c>
       <c r="AD15" t="n">
-        <v>2216847.255999116</v>
+        <v>2339771.455558959</v>
       </c>
       <c r="AE15" t="n">
-        <v>3033188.216056692</v>
+        <v>3201378.528927426</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.4211969125835e-07</v>
+        <v>1.610919679976517e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.85763888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>2743704.989822526</v>
+        <v>2895843.455289457</v>
       </c>
     </row>
   </sheetData>
@@ -36410,28 +36410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1138.990358522706</v>
+        <v>1244.6981772444</v>
       </c>
       <c r="AB2" t="n">
-        <v>1558.416857239009</v>
+        <v>1703.050958313859</v>
       </c>
       <c r="AC2" t="n">
-        <v>1409.683739635914</v>
+        <v>1540.514165099416</v>
       </c>
       <c r="AD2" t="n">
-        <v>1138990.358522706</v>
+        <v>1244698.1772444</v>
       </c>
       <c r="AE2" t="n">
-        <v>1558416.857239009</v>
+        <v>1703050.958313859</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00535235780431e-06</v>
+        <v>2.154933158481006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.32161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1409683.739635914</v>
+        <v>1540514.165099416</v>
       </c>
     </row>
   </sheetData>
@@ -36707,28 +36707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3271.980911653245</v>
+        <v>3421.947474399944</v>
       </c>
       <c r="AB2" t="n">
-        <v>4476.868632934365</v>
+        <v>4682.05950014222</v>
       </c>
       <c r="AC2" t="n">
-        <v>4049.602573931528</v>
+        <v>4235.21031276025</v>
       </c>
       <c r="AD2" t="n">
-        <v>3271980.911653245</v>
+        <v>3421947.474399944</v>
       </c>
       <c r="AE2" t="n">
-        <v>4476868.632934364</v>
+        <v>4682059.500142219</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.335685809752506e-07</v>
+        <v>1.351550620318894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.91579861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4049602.573931528</v>
+        <v>4235210.31276025</v>
       </c>
     </row>
     <row r="3">
@@ -36813,28 +36813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2202.965074844275</v>
+        <v>2324.796905665736</v>
       </c>
       <c r="AB3" t="n">
-        <v>3014.19400336203</v>
+        <v>3180.889689133</v>
       </c>
       <c r="AC3" t="n">
-        <v>2726.523558128897</v>
+        <v>2877.310041608744</v>
       </c>
       <c r="AD3" t="n">
-        <v>2202965.074844275</v>
+        <v>2324796.905665736</v>
       </c>
       <c r="AE3" t="n">
-        <v>3014194.00336203</v>
+        <v>3180889.689133</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.135379635709739e-07</v>
+        <v>1.68313206613584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.82855902777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2726523.558128897</v>
+        <v>2877310.041608744</v>
       </c>
     </row>
     <row r="4">
@@ -36919,28 +36919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1906.446309579453</v>
+        <v>2018.814645079814</v>
       </c>
       <c r="AB4" t="n">
-        <v>2608.483947241848</v>
+        <v>2762.231261214533</v>
       </c>
       <c r="AC4" t="n">
-        <v>2359.5339003473</v>
+        <v>2498.607786460141</v>
       </c>
       <c r="AD4" t="n">
-        <v>1906446.309579453</v>
+        <v>2018814.645079813</v>
       </c>
       <c r="AE4" t="n">
-        <v>2608483.947241848</v>
+        <v>2762231.261214533</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.77290183886532e-07</v>
+        <v>1.800591231030344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.20746527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2359533.900347299</v>
+        <v>2498607.786460141</v>
       </c>
     </row>
     <row r="5">
@@ -37025,28 +37025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1729.698990706947</v>
+        <v>1841.981985352736</v>
       </c>
       <c r="AB5" t="n">
-        <v>2366.650468019101</v>
+        <v>2520.281014869586</v>
       </c>
       <c r="AC5" t="n">
-        <v>2140.78066896615</v>
+        <v>2279.748932047053</v>
       </c>
       <c r="AD5" t="n">
-        <v>1729698.990706947</v>
+        <v>1841981.985352736</v>
       </c>
       <c r="AE5" t="n">
-        <v>2366650.4680191</v>
+        <v>2520281.014869586</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.01021141241014e-06</v>
+        <v>1.861246373557834e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.45008680555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2140780.66896615</v>
+        <v>2279748.932047053</v>
       </c>
     </row>
     <row r="6">
@@ -37131,28 +37131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1694.454796841056</v>
+        <v>1797.530229220908</v>
       </c>
       <c r="AB6" t="n">
-        <v>2318.427807107691</v>
+        <v>2459.460161056946</v>
       </c>
       <c r="AC6" t="n">
-        <v>2097.160311131197</v>
+        <v>2224.732735159686</v>
       </c>
       <c r="AD6" t="n">
-        <v>1694454.796841056</v>
+        <v>1797530.229220909</v>
       </c>
       <c r="AE6" t="n">
-        <v>2318427.807107692</v>
+        <v>2459460.161056946</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.016586634441696e-06</v>
+        <v>1.872992290047284e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.30902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2097160.311131197</v>
+        <v>2224732.735159686</v>
       </c>
     </row>
     <row r="7">
@@ -37237,28 +37237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1705.540952979837</v>
+        <v>1808.61638535969</v>
       </c>
       <c r="AB7" t="n">
-        <v>2333.596375023463</v>
+        <v>2474.628728972716</v>
       </c>
       <c r="AC7" t="n">
-        <v>2110.881212214305</v>
+        <v>2238.453636242795</v>
       </c>
       <c r="AD7" t="n">
-        <v>1705540.952979837</v>
+        <v>1808616.38535969</v>
       </c>
       <c r="AE7" t="n">
-        <v>2333596.375023463</v>
+        <v>2474628.728972716</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.016586634441696e-06</v>
+        <v>1.872992290047284e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.31119791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2110881.212214306</v>
+        <v>2238453.636242795</v>
       </c>
     </row>
   </sheetData>
@@ -37534,28 +37534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4497.009244635854</v>
+        <v>4671.771660117525</v>
       </c>
       <c r="AB2" t="n">
-        <v>6153.006442557052</v>
+        <v>6392.124089392716</v>
       </c>
       <c r="AC2" t="n">
-        <v>5565.772143477954</v>
+        <v>5782.068737703339</v>
       </c>
       <c r="AD2" t="n">
-        <v>4497009.244635854</v>
+        <v>4671771.660117526</v>
       </c>
       <c r="AE2" t="n">
-        <v>6153006.442557052</v>
+        <v>6392124.089392716</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.285887394160762e-07</v>
+        <v>1.122927909641429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.73741319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>5565772.143477954</v>
+        <v>5782068.737703339</v>
       </c>
     </row>
     <row r="3">
@@ -37640,28 +37640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2782.636864229928</v>
+        <v>2908.830548015638</v>
       </c>
       <c r="AB3" t="n">
-        <v>3807.326518913998</v>
+        <v>3979.990284342027</v>
       </c>
       <c r="AC3" t="n">
-        <v>3443.960619565033</v>
+        <v>3600.145597555721</v>
       </c>
       <c r="AD3" t="n">
-        <v>2782636.864229928</v>
+        <v>2908830.548015638</v>
       </c>
       <c r="AE3" t="n">
-        <v>3807326.518913998</v>
+        <v>3979990.284342027</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319468060656501e-07</v>
+        <v>1.486212254988848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.24565972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>3443960.619565033</v>
+        <v>3600145.597555721</v>
       </c>
     </row>
     <row r="4">
@@ -37746,28 +37746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2380.86587158215</v>
+        <v>2497.345791126958</v>
       </c>
       <c r="AB4" t="n">
-        <v>3257.605721888042</v>
+        <v>3416.978686540634</v>
       </c>
       <c r="AC4" t="n">
-        <v>2946.70440386927</v>
+        <v>3090.867036456774</v>
       </c>
       <c r="AD4" t="n">
-        <v>2380865.87158215</v>
+        <v>2497345.791126958</v>
       </c>
       <c r="AE4" t="n">
-        <v>3257605.721888043</v>
+        <v>3416978.686540634</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.05099361461118e-07</v>
+        <v>1.616893956655139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.12760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2946704.40386927</v>
+        <v>3090867.036456774</v>
       </c>
     </row>
     <row r="5">
@@ -37852,28 +37852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2173.63601108952</v>
+        <v>2290.030589779759</v>
       </c>
       <c r="AB5" t="n">
-        <v>2974.064684425627</v>
+        <v>3133.320881956196</v>
       </c>
       <c r="AC5" t="n">
-        <v>2690.224125070046</v>
+        <v>2834.281134625656</v>
       </c>
       <c r="AD5" t="n">
-        <v>2173636.01108952</v>
+        <v>2290030.589779759</v>
       </c>
       <c r="AE5" t="n">
-        <v>2974064.684425627</v>
+        <v>3133320.881956195</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.435371553552979e-07</v>
+        <v>1.685560270322983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.14236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2690224.125070046</v>
+        <v>2834281.134625656</v>
       </c>
     </row>
     <row r="6">
@@ -37958,28 +37958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2026.949388281604</v>
+        <v>2143.429218317861</v>
       </c>
       <c r="AB6" t="n">
-        <v>2773.361575742763</v>
+        <v>2932.734417925798</v>
       </c>
       <c r="AC6" t="n">
-        <v>2508.675839391291</v>
+        <v>2652.838361197566</v>
       </c>
       <c r="AD6" t="n">
-        <v>2026949.388281604</v>
+        <v>2143429.218317861</v>
       </c>
       <c r="AE6" t="n">
-        <v>2773361.575742763</v>
+        <v>2932734.417925798</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.676865546605417e-07</v>
+        <v>1.728701409800164e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.56510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2508675.839391292</v>
+        <v>2652838.361197567</v>
       </c>
     </row>
     <row r="7">
@@ -38064,28 +38064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1917.379348556955</v>
+        <v>2024.14550386086</v>
       </c>
       <c r="AB7" t="n">
-        <v>2623.443013502505</v>
+        <v>2769.525177379652</v>
       </c>
       <c r="AC7" t="n">
-        <v>2373.06529431922</v>
+        <v>2505.205581503537</v>
       </c>
       <c r="AD7" t="n">
-        <v>1917379.348556955</v>
+        <v>2024145.50386086</v>
       </c>
       <c r="AE7" t="n">
-        <v>2623443.013502506</v>
+        <v>2769525.177379652</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.836855317002658e-07</v>
+        <v>1.757282414703795e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.19835069444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>2373065.29431922</v>
+        <v>2505205.581503537</v>
       </c>
     </row>
     <row r="8">
@@ -38170,28 +38170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1874.857496792669</v>
+        <v>1981.623652096574</v>
       </c>
       <c r="AB8" t="n">
-        <v>2565.262739986906</v>
+        <v>2711.344903864053</v>
       </c>
       <c r="AC8" t="n">
-        <v>2320.437664451423</v>
+        <v>2452.57795163574</v>
       </c>
       <c r="AD8" t="n">
-        <v>1874857.496792669</v>
+        <v>1981623.652096574</v>
       </c>
       <c r="AE8" t="n">
-        <v>2565262.739986906</v>
+        <v>2711344.903864053</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.894210140352611e-07</v>
+        <v>1.767528435329625e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.0703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2320437.664451423</v>
+        <v>2452577.95163574</v>
       </c>
     </row>
     <row r="9">
@@ -38276,28 +38276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1884.483879469678</v>
+        <v>1991.250034773584</v>
       </c>
       <c r="AB9" t="n">
-        <v>2578.433981451621</v>
+        <v>2724.516145328768</v>
       </c>
       <c r="AC9" t="n">
-        <v>2332.351861116699</v>
+        <v>2464.492148301016</v>
       </c>
       <c r="AD9" t="n">
-        <v>1884483.879469678</v>
+        <v>1991250.034773584</v>
       </c>
       <c r="AE9" t="n">
-        <v>2578433.981451621</v>
+        <v>2724516.145328768</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.895216365323663e-07</v>
+        <v>1.767708190077447e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.06597222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2332351.861116699</v>
+        <v>2464492.148301016</v>
       </c>
     </row>
   </sheetData>
